--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-subject_matter_simpl/museum_activity_groups__var2-accreditation-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-subject_matter_simpl/museum_activity_groups__var2-accreditation-subject_matter_simpl.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -529,279 +532,411 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>147198</v>
+        <v>97816</v>
       </c>
       <c r="D4">
-        <v>2777.3</v>
+        <v>1845.6</v>
       </c>
       <c r="E4">
-        <v>8422.299999999999</v>
+        <v>6568.7</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="I4">
-        <v>1911</v>
+        <v>1152</v>
       </c>
       <c r="J4">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K4">
         <v>53</v>
       </c>
       <c r="L4">
-        <v>3590.2</v>
+        <v>2445.4</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4">
-        <v>77.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="O4">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="P4">
-        <v>17916</v>
+        <v>23200</v>
       </c>
       <c r="Q4">
-        <v>338</v>
+        <v>437.7</v>
       </c>
       <c r="R4">
-        <v>525.9</v>
+        <v>1214.3</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="V4">
-        <v>619</v>
+        <v>356</v>
       </c>
       <c r="W4">
-        <v>1756</v>
+        <v>8505</v>
       </c>
       <c r="X4">
         <v>53</v>
       </c>
       <c r="Y4">
+        <v>580</v>
+      </c>
+      <c r="Z4">
+        <v>40</v>
+      </c>
+      <c r="AA4">
+        <v>75.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.1</v>
+      </c>
+      <c r="AC4">
+        <v>17916</v>
+      </c>
+      <c r="AD4">
+        <v>338</v>
+      </c>
+      <c r="AE4">
+        <v>525.9</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>619</v>
+      </c>
+      <c r="AJ4">
+        <v>1756</v>
+      </c>
+      <c r="AK4">
+        <v>53</v>
+      </c>
+      <c r="AL4">
         <v>895.8</v>
       </c>
-      <c r="Z4">
+      <c r="AM4">
         <v>20</v>
       </c>
-      <c r="AA4">
+      <c r="AN4">
         <v>37.7</v>
       </c>
-      <c r="AB4">
+      <c r="AO4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>384960</v>
+        <v>221192</v>
       </c>
       <c r="D5">
-        <v>2516.1</v>
+        <v>1445.7</v>
       </c>
       <c r="E5">
-        <v>3645.8</v>
+        <v>1852</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="H5">
-        <v>1188</v>
+        <v>823</v>
       </c>
       <c r="I5">
-        <v>3144</v>
+        <v>2171</v>
       </c>
       <c r="J5">
-        <v>18528</v>
+        <v>10957</v>
       </c>
       <c r="K5">
         <v>153</v>
       </c>
       <c r="L5">
-        <v>3055.2</v>
+        <v>1874.5</v>
       </c>
       <c r="M5">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N5">
-        <v>82.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="O5">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P5">
-        <v>82444</v>
+        <v>78146</v>
       </c>
       <c r="Q5">
-        <v>538.8</v>
+        <v>510.8</v>
       </c>
       <c r="R5">
-        <v>731.8</v>
+        <v>1226.8</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U5">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="V5">
-        <v>895</v>
+        <v>409</v>
       </c>
       <c r="W5">
-        <v>4241</v>
+        <v>9692</v>
       </c>
       <c r="X5">
         <v>153</v>
       </c>
       <c r="Y5">
+        <v>656.7</v>
+      </c>
+      <c r="Z5">
+        <v>119</v>
+      </c>
+      <c r="AA5">
+        <v>77.8</v>
+      </c>
+      <c r="AB5">
+        <v>1.2</v>
+      </c>
+      <c r="AC5">
+        <v>82444</v>
+      </c>
+      <c r="AD5">
+        <v>538.8</v>
+      </c>
+      <c r="AE5">
+        <v>731.8</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>190</v>
+      </c>
+      <c r="AI5">
+        <v>895</v>
+      </c>
+      <c r="AJ5">
+        <v>4241</v>
+      </c>
+      <c r="AK5">
+        <v>153</v>
+      </c>
+      <c r="AL5">
         <v>1005.4</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>82</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>53.6</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>33094</v>
+        <v>23669</v>
       </c>
       <c r="D6">
-        <v>973.4</v>
+        <v>696.1</v>
       </c>
       <c r="E6">
-        <v>2253.3</v>
+        <v>1437.6</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -810,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>210.5</v>
+        <v>171</v>
       </c>
       <c r="I6">
-        <v>850.5</v>
+        <v>649</v>
       </c>
       <c r="J6">
-        <v>11968</v>
+        <v>7432</v>
       </c>
       <c r="K6">
         <v>34</v>
       </c>
       <c r="L6">
-        <v>1654.7</v>
+        <v>1183.4</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -831,16 +966,16 @@
         <v>58.8</v>
       </c>
       <c r="O6">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="P6">
-        <v>7824</v>
+        <v>9394</v>
       </c>
       <c r="Q6">
-        <v>230.1</v>
+        <v>276.3</v>
       </c>
       <c r="R6">
-        <v>390.5</v>
+        <v>852.7</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -849,127 +984,205 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="V6">
-        <v>395.8</v>
+        <v>139.2</v>
       </c>
       <c r="W6">
-        <v>1678</v>
+        <v>4532</v>
       </c>
       <c r="X6">
         <v>34</v>
       </c>
       <c r="Y6">
+        <v>469.7</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>58.8</v>
+      </c>
+      <c r="AB6">
+        <v>-0.1</v>
+      </c>
+      <c r="AC6">
+        <v>7824</v>
+      </c>
+      <c r="AD6">
+        <v>230.1</v>
+      </c>
+      <c r="AE6">
+        <v>390.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>395.8</v>
+      </c>
+      <c r="AJ6">
+        <v>1678</v>
+      </c>
+      <c r="AK6">
+        <v>34</v>
+      </c>
+      <c r="AL6">
         <v>558.9</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>14</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>41.2</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>221308</v>
+        <v>165384</v>
       </c>
       <c r="D7">
-        <v>907</v>
+        <v>677.8</v>
       </c>
       <c r="E7">
-        <v>1440.9</v>
+        <v>1034.7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17.5</v>
+        <v>6.2</v>
       </c>
       <c r="H7">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="I7">
-        <v>1242.2</v>
+        <v>923</v>
       </c>
       <c r="J7">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="K7">
         <v>244</v>
       </c>
       <c r="L7">
-        <v>1152.6</v>
+        <v>884.4</v>
       </c>
       <c r="M7">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N7">
-        <v>78.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="O7">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P7">
-        <v>65448</v>
+        <v>46595</v>
       </c>
       <c r="Q7">
-        <v>268.2</v>
+        <v>191</v>
       </c>
       <c r="R7">
-        <v>371.7</v>
+        <v>384.9</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="V7">
-        <v>476</v>
+        <v>227.2</v>
       </c>
       <c r="W7">
-        <v>2516</v>
+        <v>3864</v>
       </c>
       <c r="X7">
         <v>244</v>
       </c>
       <c r="Y7">
+        <v>245.2</v>
+      </c>
+      <c r="Z7">
+        <v>190</v>
+      </c>
+      <c r="AA7">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>1.2</v>
+      </c>
+      <c r="AC7">
+        <v>65448</v>
+      </c>
+      <c r="AD7">
+        <v>268.2</v>
+      </c>
+      <c r="AE7">
+        <v>371.7</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>476</v>
+      </c>
+      <c r="AJ7">
+        <v>2516</v>
+      </c>
+      <c r="AK7">
+        <v>244</v>
+      </c>
+      <c r="AL7">
         <v>559.4</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>117</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>48</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>9524</v>
+        <v>6965</v>
       </c>
       <c r="D8">
-        <v>1360.6</v>
+        <v>995</v>
       </c>
       <c r="E8">
-        <v>2080.9</v>
+        <v>1447.8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -978,19 +1191,19 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>2025</v>
+        <v>1674.5</v>
       </c>
       <c r="J8">
-        <v>5461</v>
+        <v>3607</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1904.8</v>
+        <v>1393</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -999,16 +1212,16 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="P8">
-        <v>2434</v>
+        <v>2544</v>
       </c>
       <c r="Q8">
-        <v>347.7</v>
+        <v>363.4</v>
       </c>
       <c r="R8">
-        <v>609</v>
+        <v>672</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1017,61 +1230,100 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>491.5</v>
+        <v>349.5</v>
       </c>
       <c r="W8">
-        <v>1451</v>
+        <v>1841</v>
       </c>
       <c r="X8">
         <v>7</v>
       </c>
       <c r="Y8">
+        <v>636</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>57.1</v>
+      </c>
+      <c r="AB8">
+        <v>-0.3</v>
+      </c>
+      <c r="AC8">
+        <v>2434</v>
+      </c>
+      <c r="AD8">
+        <v>347.7</v>
+      </c>
+      <c r="AE8">
+        <v>609</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>491.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1451</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
         <v>1217</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>2</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>28.6</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="D9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="F9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="G9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="H9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="I9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="J9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2918</v>
+        <v>2470</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1080,178 +1332,253 @@
         <v>100</v>
       </c>
       <c r="O9">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
+      <c r="Y9">
+        <v>425</v>
+      </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9">
+        <v>2.8</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>89514</v>
+        <v>53747</v>
       </c>
       <c r="D10">
-        <v>1316.4</v>
+        <v>790.4</v>
       </c>
       <c r="E10">
-        <v>2354.6</v>
+        <v>1419</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>408</v>
+        <v>256.5</v>
       </c>
       <c r="I10">
-        <v>1473.5</v>
+        <v>1002</v>
       </c>
       <c r="J10">
-        <v>13075</v>
+        <v>8460</v>
       </c>
       <c r="K10">
         <v>68</v>
       </c>
       <c r="L10">
-        <v>1627.5</v>
+        <v>1096.9</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N10">
-        <v>80.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P10">
-        <v>28455</v>
+        <v>17619</v>
       </c>
       <c r="Q10">
-        <v>418.5</v>
+        <v>259.1</v>
       </c>
       <c r="R10">
-        <v>749</v>
+        <v>525.4</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="V10">
-        <v>605.2</v>
+        <v>207.2</v>
       </c>
       <c r="W10">
-        <v>5271</v>
+        <v>3021</v>
       </c>
       <c r="X10">
         <v>68</v>
       </c>
       <c r="Y10">
+        <v>338.8</v>
+      </c>
+      <c r="Z10">
+        <v>52</v>
+      </c>
+      <c r="AA10">
+        <v>76.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.1</v>
+      </c>
+      <c r="AC10">
+        <v>28455</v>
+      </c>
+      <c r="AD10">
+        <v>418.5</v>
+      </c>
+      <c r="AE10">
+        <v>749</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>605.2</v>
+      </c>
+      <c r="AJ10">
+        <v>5271</v>
+      </c>
+      <c r="AK10">
+        <v>68</v>
+      </c>
+      <c r="AL10">
         <v>836.9</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>34</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>50</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>42448</v>
+        <v>14175</v>
       </c>
       <c r="D11">
-        <v>2653</v>
+        <v>885.9</v>
       </c>
       <c r="E11">
-        <v>5368.9</v>
+        <v>1645.9</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>741</v>
+        <v>75.5</v>
       </c>
       <c r="I11">
-        <v>1819.8</v>
+        <v>1447</v>
       </c>
       <c r="J11">
-        <v>19670</v>
+        <v>6521</v>
       </c>
       <c r="K11">
         <v>16</v>
       </c>
       <c r="L11">
-        <v>3537.3</v>
+        <v>1417.5</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="O11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P11">
-        <v>6152</v>
+        <v>6675</v>
       </c>
       <c r="Q11">
-        <v>384.5</v>
+        <v>417.2</v>
       </c>
       <c r="R11">
-        <v>547.8</v>
+        <v>1277</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1260,43 +1587,82 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>524</v>
+        <v>187.2</v>
       </c>
       <c r="W11">
-        <v>1837</v>
+        <v>5171</v>
       </c>
       <c r="X11">
         <v>16</v>
       </c>
       <c r="Y11">
+        <v>667.5</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>62.5</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11">
+        <v>6152</v>
+      </c>
+      <c r="AD11">
+        <v>384.5</v>
+      </c>
+      <c r="AE11">
+        <v>547.8</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>171</v>
+      </c>
+      <c r="AI11">
+        <v>524</v>
+      </c>
+      <c r="AJ11">
+        <v>1837</v>
+      </c>
+      <c r="AK11">
+        <v>16</v>
+      </c>
+      <c r="AL11">
         <v>769</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>8</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>50</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>804978</v>
+        <v>323257</v>
       </c>
       <c r="D12">
-        <v>1712.7</v>
+        <v>687.8</v>
       </c>
       <c r="E12">
-        <v>5231.9</v>
+        <v>2416.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1305,37 +1671,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>169</v>
+        <v>73.5</v>
       </c>
       <c r="I12">
-        <v>1105</v>
+        <v>646</v>
       </c>
       <c r="J12">
-        <v>68140</v>
+        <v>43003</v>
       </c>
       <c r="K12">
         <v>470</v>
       </c>
       <c r="L12">
-        <v>2523.4</v>
+        <v>1134.2</v>
       </c>
       <c r="M12">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="N12">
-        <v>67.90000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P12">
-        <v>149816</v>
+        <v>71316</v>
       </c>
       <c r="Q12">
-        <v>318.8</v>
+        <v>151.7</v>
       </c>
       <c r="R12">
-        <v>837.2</v>
+        <v>638.1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1344,82 +1710,121 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V12">
-        <v>262.8</v>
+        <v>88.2</v>
       </c>
       <c r="W12">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X12">
         <v>470</v>
       </c>
       <c r="Y12">
+        <v>252</v>
+      </c>
+      <c r="Z12">
+        <v>283</v>
+      </c>
+      <c r="AA12">
+        <v>60.2</v>
+      </c>
+      <c r="AB12">
+        <v>-0</v>
+      </c>
+      <c r="AC12">
+        <v>149816</v>
+      </c>
+      <c r="AD12">
+        <v>318.8</v>
+      </c>
+      <c r="AE12">
+        <v>837.2</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>262.8</v>
+      </c>
+      <c r="AJ12">
+        <v>6887</v>
+      </c>
+      <c r="AK12">
+        <v>470</v>
+      </c>
+      <c r="AL12">
         <v>1033.2</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>145</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>30.9</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>78260</v>
+        <v>22093</v>
       </c>
       <c r="D13">
-        <v>3913</v>
+        <v>1104.6</v>
       </c>
       <c r="E13">
-        <v>4704.8</v>
+        <v>1153</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>846.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2348.5</v>
+        <v>1082</v>
       </c>
       <c r="I13">
-        <v>4516.8</v>
+        <v>1944.8</v>
       </c>
       <c r="J13">
-        <v>16647</v>
+        <v>4125</v>
       </c>
       <c r="K13">
         <v>20</v>
       </c>
       <c r="L13">
-        <v>4603.5</v>
+        <v>1699.5</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N13">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O13">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="P13">
-        <v>6466</v>
+        <v>8548</v>
       </c>
       <c r="Q13">
-        <v>323.3</v>
+        <v>427.4</v>
       </c>
       <c r="R13">
-        <v>529.3</v>
+        <v>620.1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1428,211 +1833,328 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="V13">
-        <v>805.2</v>
+        <v>550.8</v>
       </c>
       <c r="W13">
-        <v>1650</v>
+        <v>2057</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Y13">
+        <v>657.5</v>
+      </c>
+      <c r="Z13">
+        <v>13</v>
+      </c>
+      <c r="AA13">
+        <v>65</v>
+      </c>
+      <c r="AB13">
+        <v>0.3</v>
+      </c>
+      <c r="AC13">
+        <v>6466</v>
+      </c>
+      <c r="AD13">
+        <v>323.3</v>
+      </c>
+      <c r="AE13">
+        <v>529.3</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>805.2</v>
+      </c>
+      <c r="AJ13">
+        <v>1650</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AL13">
         <v>923.7</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>7</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>35</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>462206</v>
+        <v>212940</v>
       </c>
       <c r="D14">
-        <v>3475.2</v>
+        <v>1601.1</v>
       </c>
       <c r="E14">
-        <v>7549.3</v>
+        <v>2120.7</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>408</v>
+        <v>207</v>
       </c>
       <c r="H14">
-        <v>1370</v>
+        <v>946</v>
       </c>
       <c r="I14">
-        <v>3207</v>
+        <v>2058</v>
       </c>
       <c r="J14">
-        <v>74441</v>
+        <v>13583</v>
       </c>
       <c r="K14">
         <v>133</v>
       </c>
       <c r="L14">
-        <v>3950.5</v>
+        <v>1990.1</v>
       </c>
       <c r="M14">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N14">
-        <v>88</v>
+        <v>80.5</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P14">
-        <v>96975</v>
+        <v>87990</v>
       </c>
       <c r="Q14">
-        <v>729.1</v>
+        <v>661.6</v>
       </c>
       <c r="R14">
-        <v>934.9</v>
+        <v>2105.9</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U14">
-        <v>586</v>
+        <v>150</v>
       </c>
       <c r="V14">
-        <v>1060</v>
+        <v>468</v>
       </c>
       <c r="W14">
-        <v>6448</v>
+        <v>18016</v>
       </c>
       <c r="X14">
         <v>133</v>
       </c>
       <c r="Y14">
+        <v>807.2</v>
+      </c>
+      <c r="Z14">
+        <v>109</v>
+      </c>
+      <c r="AA14">
+        <v>82</v>
+      </c>
+      <c r="AB14">
+        <v>1.5</v>
+      </c>
+      <c r="AC14">
+        <v>96975</v>
+      </c>
+      <c r="AD14">
+        <v>729.1</v>
+      </c>
+      <c r="AE14">
+        <v>934.9</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>586</v>
+      </c>
+      <c r="AI14">
+        <v>1060</v>
+      </c>
+      <c r="AJ14">
+        <v>6448</v>
+      </c>
+      <c r="AK14">
+        <v>133</v>
+      </c>
+      <c r="AL14">
         <v>1089.6</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>89</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>66.90000000000001</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>2.2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>78535</v>
+        <v>47150</v>
       </c>
       <c r="D15">
-        <v>3569.8</v>
+        <v>2143.2</v>
       </c>
       <c r="E15">
-        <v>5120.7</v>
+        <v>2602</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>410</v>
+        <v>112.8</v>
       </c>
       <c r="H15">
-        <v>2156.5</v>
+        <v>1499.5</v>
       </c>
       <c r="I15">
-        <v>4072.5</v>
+        <v>2942.2</v>
       </c>
       <c r="J15">
-        <v>23410</v>
+        <v>10793</v>
       </c>
       <c r="K15">
         <v>22</v>
       </c>
       <c r="L15">
-        <v>4363.1</v>
+        <v>2773.5</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15">
-        <v>81.8</v>
+        <v>77.3</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P15">
-        <v>11059</v>
+        <v>23139</v>
       </c>
       <c r="Q15">
-        <v>502.7</v>
+        <v>1051.8</v>
       </c>
       <c r="R15">
-        <v>768.9</v>
+        <v>2621.9</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>364.5</v>
       </c>
       <c r="V15">
-        <v>975.8</v>
+        <v>750.5</v>
       </c>
       <c r="W15">
-        <v>2991</v>
+        <v>12485</v>
       </c>
       <c r="X15">
         <v>22</v>
       </c>
       <c r="Y15">
+        <v>1361.1</v>
+      </c>
+      <c r="Z15">
+        <v>17</v>
+      </c>
+      <c r="AA15">
+        <v>77.3</v>
+      </c>
+      <c r="AB15">
+        <v>1.2</v>
+      </c>
+      <c r="AC15">
+        <v>11059</v>
+      </c>
+      <c r="AD15">
+        <v>502.7</v>
+      </c>
+      <c r="AE15">
+        <v>768.9</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>975.8</v>
+      </c>
+      <c r="AJ15">
+        <v>2991</v>
+      </c>
+      <c r="AK15">
+        <v>22</v>
+      </c>
+      <c r="AL15">
         <v>1105.9</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>10</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>45.5</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>14510</v>
+        <v>10531</v>
       </c>
       <c r="D16">
-        <v>1612.2</v>
+        <v>1170.1</v>
       </c>
       <c r="E16">
-        <v>2038.6</v>
+        <v>1490.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1641,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>967</v>
+        <v>783</v>
       </c>
       <c r="I16">
-        <v>3237</v>
+        <v>2128</v>
       </c>
       <c r="J16">
-        <v>5736</v>
+        <v>4331</v>
       </c>
       <c r="K16">
         <v>9</v>
       </c>
       <c r="L16">
-        <v>2902</v>
+        <v>2106.2</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1662,16 +2184,16 @@
         <v>55.6</v>
       </c>
       <c r="O16">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="P16">
-        <v>1379</v>
+        <v>3945</v>
       </c>
       <c r="Q16">
-        <v>153.2</v>
+        <v>438.3</v>
       </c>
       <c r="R16">
-        <v>312.9</v>
+        <v>557.5</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1680,43 +2202,82 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="W16">
-        <v>837</v>
+        <v>1386</v>
       </c>
       <c r="X16">
         <v>9</v>
       </c>
       <c r="Y16">
+        <v>789</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>55.6</v>
+      </c>
+      <c r="AB16">
+        <v>-0.4</v>
+      </c>
+      <c r="AC16">
+        <v>1379</v>
+      </c>
+      <c r="AD16">
+        <v>153.2</v>
+      </c>
+      <c r="AE16">
+        <v>312.9</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>837</v>
+      </c>
+      <c r="AK16">
+        <v>9</v>
+      </c>
+      <c r="AL16">
         <v>689.5</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>2</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>22.2</v>
       </c>
-      <c r="AB16">
+      <c r="AO16">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>175798</v>
+        <v>88589</v>
       </c>
       <c r="D17">
-        <v>1831.2</v>
+        <v>922.8</v>
       </c>
       <c r="E17">
-        <v>4353.5</v>
+        <v>1705.8</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1725,82 +2286,121 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>605</v>
+        <v>417.5</v>
       </c>
       <c r="I17">
-        <v>1862</v>
+        <v>1152.8</v>
       </c>
       <c r="J17">
-        <v>30621</v>
+        <v>14162</v>
       </c>
       <c r="K17">
         <v>96</v>
       </c>
       <c r="L17">
-        <v>2547.8</v>
+        <v>1362.9</v>
       </c>
       <c r="M17">
+        <v>65</v>
+      </c>
+      <c r="N17">
+        <v>67.7</v>
+      </c>
+      <c r="O17">
+        <v>0.6</v>
+      </c>
+      <c r="P17">
+        <v>27269</v>
+      </c>
+      <c r="Q17">
+        <v>284.1</v>
+      </c>
+      <c r="R17">
+        <v>748.7</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>69</v>
       </c>
-      <c r="N17">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.3</v>
-      </c>
-      <c r="P17">
-        <v>36738</v>
-      </c>
-      <c r="Q17">
-        <v>382.7</v>
-      </c>
-      <c r="R17">
-        <v>1404</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
       <c r="V17">
-        <v>355.5</v>
+        <v>303.2</v>
       </c>
       <c r="W17">
-        <v>13336</v>
+        <v>6662</v>
       </c>
       <c r="X17">
         <v>96</v>
       </c>
       <c r="Y17">
+        <v>413.2</v>
+      </c>
+      <c r="Z17">
+        <v>66</v>
+      </c>
+      <c r="AA17">
+        <v>68.8</v>
+      </c>
+      <c r="AB17">
+        <v>0.6</v>
+      </c>
+      <c r="AC17">
+        <v>36738</v>
+      </c>
+      <c r="AD17">
+        <v>382.7</v>
+      </c>
+      <c r="AE17">
+        <v>1404</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>355.5</v>
+      </c>
+      <c r="AJ17">
+        <v>13336</v>
+      </c>
+      <c r="AK17">
+        <v>96</v>
+      </c>
+      <c r="AL17">
         <v>1020.5</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>36</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>37.5</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>69846</v>
+        <v>21078</v>
       </c>
       <c r="D18">
-        <v>1940.2</v>
+        <v>585.5</v>
       </c>
       <c r="E18">
-        <v>10028.2</v>
+        <v>2165.9</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1809,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I18">
-        <v>452.2</v>
+        <v>396</v>
       </c>
       <c r="J18">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K18">
         <v>36</v>
       </c>
       <c r="L18">
-        <v>3326</v>
+        <v>1003.7</v>
       </c>
       <c r="M18">
         <v>21</v>
@@ -1830,16 +2430,16 @@
         <v>58.3</v>
       </c>
       <c r="O18">
-        <v>-0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="P18">
-        <v>5646</v>
+        <v>48415</v>
       </c>
       <c r="Q18">
-        <v>156.8</v>
+        <v>1344.9</v>
       </c>
       <c r="R18">
-        <v>363.5</v>
+        <v>7825.7</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1848,82 +2448,121 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="W18">
-        <v>1602</v>
+        <v>46992</v>
       </c>
       <c r="X18">
         <v>36</v>
       </c>
       <c r="Y18">
+        <v>2305.5</v>
+      </c>
+      <c r="Z18">
+        <v>21</v>
+      </c>
+      <c r="AA18">
+        <v>58.3</v>
+      </c>
+      <c r="AB18">
+        <v>-0.2</v>
+      </c>
+      <c r="AC18">
+        <v>5646</v>
+      </c>
+      <c r="AD18">
+        <v>156.8</v>
+      </c>
+      <c r="AE18">
+        <v>363.5</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1602</v>
+      </c>
+      <c r="AK18">
+        <v>36</v>
+      </c>
+      <c r="AL18">
         <v>705.8</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>8</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>22.2</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>37272</v>
+        <v>12192</v>
       </c>
       <c r="D19">
-        <v>3727.2</v>
+        <v>1219.2</v>
       </c>
       <c r="E19">
-        <v>4652.3</v>
+        <v>1859.2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2208.5</v>
+        <v>68.5</v>
       </c>
       <c r="I19">
-        <v>5260</v>
+        <v>1971.8</v>
       </c>
       <c r="J19">
-        <v>12385</v>
+        <v>5548</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>4659</v>
+        <v>2032</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O19">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2155</v>
+        <v>6629</v>
       </c>
       <c r="Q19">
-        <v>215.5</v>
+        <v>662.9</v>
       </c>
       <c r="R19">
-        <v>364.9</v>
+        <v>1724.8</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1932,295 +2571,451 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V19">
-        <v>411.8</v>
+        <v>308.2</v>
       </c>
       <c r="W19">
-        <v>992</v>
+        <v>5547</v>
       </c>
       <c r="X19">
         <v>10</v>
       </c>
       <c r="Y19">
+        <v>1104.8</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>60</v>
+      </c>
+      <c r="AB19">
+        <v>-0</v>
+      </c>
+      <c r="AC19">
+        <v>2155</v>
+      </c>
+      <c r="AD19">
+        <v>215.5</v>
+      </c>
+      <c r="AE19">
+        <v>364.9</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>411.8</v>
+      </c>
+      <c r="AJ19">
+        <v>992</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+      <c r="AL19">
         <v>718.3</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>3</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>30</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>58676</v>
+        <v>41007</v>
       </c>
       <c r="D20">
-        <v>1397</v>
+        <v>976.4</v>
       </c>
       <c r="E20">
-        <v>2421.2</v>
+        <v>1470.5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>5.8</v>
       </c>
       <c r="H20">
-        <v>302.5</v>
+        <v>284</v>
       </c>
       <c r="I20">
-        <v>1667</v>
+        <v>1313.2</v>
       </c>
       <c r="J20">
-        <v>10097</v>
+        <v>6213</v>
       </c>
       <c r="K20">
         <v>42</v>
       </c>
       <c r="L20">
-        <v>1778.1</v>
+        <v>1281.5</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>78.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="O20">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P20">
-        <v>15261</v>
+        <v>17648</v>
       </c>
       <c r="Q20">
-        <v>363.4</v>
+        <v>420.2</v>
       </c>
       <c r="R20">
-        <v>500.5</v>
+        <v>1113.1</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="V20">
-        <v>585.8</v>
+        <v>303</v>
       </c>
       <c r="W20">
-        <v>1627</v>
+        <v>6137</v>
       </c>
       <c r="X20">
         <v>42</v>
       </c>
       <c r="Y20">
+        <v>551.5</v>
+      </c>
+      <c r="Z20">
+        <v>32</v>
+      </c>
+      <c r="AA20">
+        <v>76.2</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>15261</v>
+      </c>
+      <c r="AD20">
+        <v>363.4</v>
+      </c>
+      <c r="AE20">
+        <v>500.5</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>585.8</v>
+      </c>
+      <c r="AJ20">
+        <v>1627</v>
+      </c>
+      <c r="AK20">
+        <v>42</v>
+      </c>
+      <c r="AL20">
         <v>763</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>20</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>47.6</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>34891</v>
+        <v>1276</v>
       </c>
       <c r="D21">
-        <v>5815.2</v>
+        <v>212.7</v>
       </c>
       <c r="E21">
-        <v>10742.8</v>
+        <v>509.3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4847.5</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>27245</v>
+        <v>1252</v>
       </c>
       <c r="K21">
         <v>6</v>
       </c>
       <c r="L21">
-        <v>6978.2</v>
+        <v>638</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>83.3</v>
+        <v>33.3</v>
       </c>
       <c r="O21">
-        <v>1.1</v>
+        <v>-1.8</v>
       </c>
       <c r="P21">
-        <v>12006</v>
+        <v>480</v>
       </c>
       <c r="Q21">
-        <v>2001</v>
+        <v>80</v>
       </c>
       <c r="R21">
-        <v>2463.7</v>
+        <v>193</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1189.5</v>
+        <v>0.5</v>
       </c>
       <c r="V21">
-        <v>2900.2</v>
+        <v>4</v>
       </c>
       <c r="W21">
-        <v>6335</v>
+        <v>474</v>
       </c>
       <c r="X21">
         <v>6</v>
       </c>
       <c r="Y21">
+        <v>160</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>50</v>
+      </c>
+      <c r="AB21">
+        <v>-0.8</v>
+      </c>
+      <c r="AC21">
+        <v>12006</v>
+      </c>
+      <c r="AD21">
+        <v>2001</v>
+      </c>
+      <c r="AE21">
+        <v>2463.7</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>163.5</v>
+      </c>
+      <c r="AH21">
+        <v>1189.5</v>
+      </c>
+      <c r="AI21">
+        <v>2900.2</v>
+      </c>
+      <c r="AJ21">
+        <v>6335</v>
+      </c>
+      <c r="AK21">
+        <v>6</v>
+      </c>
+      <c r="AL21">
         <v>3001.5</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>4</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>66.7</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>2.2</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>77608</v>
+        <v>51552</v>
       </c>
       <c r="D22">
-        <v>1093.1</v>
+        <v>726.1</v>
       </c>
       <c r="E22">
-        <v>1572.2</v>
+        <v>938.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="H22">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="I22">
-        <v>1780</v>
+        <v>1188.5</v>
       </c>
       <c r="J22">
-        <v>7199</v>
+        <v>4224</v>
       </c>
       <c r="K22">
         <v>71</v>
       </c>
       <c r="L22">
-        <v>1338.1</v>
+        <v>954.7</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N22">
-        <v>81.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P22">
-        <v>30609</v>
+        <v>25726</v>
       </c>
       <c r="Q22">
-        <v>431.1</v>
+        <v>362.3</v>
       </c>
       <c r="R22">
-        <v>564.6</v>
+        <v>745.3</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U22">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="V22">
-        <v>656.5</v>
+        <v>391.5</v>
       </c>
       <c r="W22">
-        <v>2322</v>
+        <v>4715</v>
       </c>
       <c r="X22">
         <v>71</v>
       </c>
       <c r="Y22">
+        <v>443.6</v>
+      </c>
+      <c r="Z22">
+        <v>58</v>
+      </c>
+      <c r="AA22">
+        <v>81.7</v>
+      </c>
+      <c r="AB22">
+        <v>1.5</v>
+      </c>
+      <c r="AC22">
+        <v>30609</v>
+      </c>
+      <c r="AD22">
+        <v>431.1</v>
+      </c>
+      <c r="AE22">
+        <v>564.6</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>166</v>
+      </c>
+      <c r="AI22">
+        <v>656.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2322</v>
+      </c>
+      <c r="AK22">
+        <v>71</v>
+      </c>
+      <c r="AL22">
         <v>805.5</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>38</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>53.5</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>3865</v>
+        <v>3183</v>
       </c>
       <c r="D23">
-        <v>351.4</v>
+        <v>289.4</v>
       </c>
       <c r="E23">
-        <v>508</v>
+        <v>399.2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2229,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I23">
-        <v>516.5</v>
+        <v>461</v>
       </c>
       <c r="J23">
-        <v>1490</v>
+        <v>1148</v>
       </c>
       <c r="K23">
         <v>11</v>
       </c>
       <c r="L23">
-        <v>644.2</v>
+        <v>530.5</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -2250,16 +3045,16 @@
         <v>54.5</v>
       </c>
       <c r="O23">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="P23">
-        <v>455</v>
+        <v>677</v>
       </c>
       <c r="Q23">
-        <v>41.4</v>
+        <v>61.5</v>
       </c>
       <c r="R23">
-        <v>132</v>
+        <v>111.3</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2268,82 +3063,121 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="W23">
-        <v>439</v>
+        <v>341</v>
       </c>
       <c r="X23">
         <v>11</v>
       </c>
       <c r="Y23">
+        <v>112.8</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
+        <v>54.5</v>
+      </c>
+      <c r="AB23">
+        <v>-0.4</v>
+      </c>
+      <c r="AC23">
+        <v>455</v>
+      </c>
+      <c r="AD23">
+        <v>41.4</v>
+      </c>
+      <c r="AE23">
+        <v>132</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>439</v>
+      </c>
+      <c r="AK23">
+        <v>11</v>
+      </c>
+      <c r="AL23">
         <v>227.5</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>2</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>18.2</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
-        <v>329855</v>
+        <v>153572</v>
       </c>
       <c r="D24">
-        <v>2213.8</v>
+        <v>1030.7</v>
       </c>
       <c r="E24">
-        <v>5779.9</v>
+        <v>2678.6</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="I24">
-        <v>1277</v>
+        <v>920</v>
       </c>
       <c r="J24">
-        <v>38597</v>
+        <v>18330</v>
       </c>
       <c r="K24">
         <v>149</v>
       </c>
       <c r="L24">
-        <v>2819.3</v>
+        <v>1408.9</v>
       </c>
       <c r="M24">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N24">
-        <v>78.5</v>
+        <v>73.2</v>
       </c>
       <c r="O24">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P24">
-        <v>53190</v>
+        <v>66634</v>
       </c>
       <c r="Q24">
-        <v>357</v>
+        <v>447.2</v>
       </c>
       <c r="R24">
-        <v>738.3</v>
+        <v>1286</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2352,45 +3186,84 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V24">
-        <v>389</v>
+        <v>221</v>
       </c>
       <c r="W24">
-        <v>6327</v>
+        <v>7809</v>
       </c>
       <c r="X24">
         <v>149</v>
       </c>
       <c r="Y24">
+        <v>605.8</v>
+      </c>
+      <c r="Z24">
+        <v>110</v>
+      </c>
+      <c r="AA24">
+        <v>73.8</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>53190</v>
+      </c>
+      <c r="AD24">
+        <v>357</v>
+      </c>
+      <c r="AE24">
+        <v>738.3</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>389</v>
+      </c>
+      <c r="AJ24">
+        <v>6327</v>
+      </c>
+      <c r="AK24">
+        <v>149</v>
+      </c>
+      <c r="AL24">
         <v>818.3</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>65</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>43.6</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>45276</v>
+        <v>20144</v>
       </c>
       <c r="D25">
-        <v>1191.5</v>
+        <v>530.1</v>
       </c>
       <c r="E25">
-        <v>2616.7</v>
+        <v>1333.9</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2399,37 +3272,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1056</v>
+        <v>266</v>
       </c>
       <c r="J25">
-        <v>13403</v>
+        <v>7295</v>
       </c>
       <c r="K25">
         <v>38</v>
       </c>
       <c r="L25">
-        <v>2263.8</v>
+        <v>1184.9</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>52.6</v>
+        <v>44.7</v>
       </c>
       <c r="O25">
         <v>-1.1</v>
       </c>
       <c r="P25">
-        <v>9397</v>
+        <v>14651</v>
       </c>
       <c r="Q25">
-        <v>247.3</v>
+        <v>385.6</v>
       </c>
       <c r="R25">
-        <v>544</v>
+        <v>1134.1</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2441,40 +3314,79 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>29.2</v>
+        <v>87.5</v>
       </c>
       <c r="W25">
-        <v>2362</v>
+        <v>6050</v>
       </c>
       <c r="X25">
         <v>38</v>
       </c>
       <c r="Y25">
+        <v>861.8</v>
+      </c>
+      <c r="Z25">
+        <v>17</v>
+      </c>
+      <c r="AA25">
+        <v>44.7</v>
+      </c>
+      <c r="AB25">
+        <v>-1.1</v>
+      </c>
+      <c r="AC25">
+        <v>9397</v>
+      </c>
+      <c r="AD25">
+        <v>247.3</v>
+      </c>
+      <c r="AE25">
+        <v>544</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>29.2</v>
+      </c>
+      <c r="AJ25">
+        <v>2362</v>
+      </c>
+      <c r="AK25">
+        <v>38</v>
+      </c>
+      <c r="AL25">
         <v>939.7</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>10</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>26.3</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <v>178765</v>
+        <v>105192</v>
       </c>
       <c r="D26">
-        <v>1901.8</v>
+        <v>1119.1</v>
       </c>
       <c r="E26">
-        <v>3762.4</v>
+        <v>2272.4</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2483,37 +3395,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>582.5</v>
+        <v>234.5</v>
       </c>
       <c r="I26">
-        <v>1908</v>
+        <v>1321.2</v>
       </c>
       <c r="J26">
-        <v>22875</v>
+        <v>14118</v>
       </c>
       <c r="K26">
         <v>94</v>
       </c>
       <c r="L26">
-        <v>2793.2</v>
+        <v>1753.2</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N26">
-        <v>68.09999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P26">
-        <v>40556</v>
+        <v>44658</v>
       </c>
       <c r="Q26">
-        <v>431.4</v>
+        <v>475.1</v>
       </c>
       <c r="R26">
-        <v>703.3</v>
+        <v>2224.8</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2522,43 +3434,82 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V26">
-        <v>632</v>
+        <v>226.8</v>
       </c>
       <c r="W26">
-        <v>4362</v>
+        <v>19557</v>
       </c>
       <c r="X26">
         <v>94</v>
       </c>
       <c r="Y26">
+        <v>756.9</v>
+      </c>
+      <c r="Z26">
+        <v>59</v>
+      </c>
+      <c r="AA26">
+        <v>62.8</v>
+      </c>
+      <c r="AB26">
+        <v>0.2</v>
+      </c>
+      <c r="AC26">
+        <v>40556</v>
+      </c>
+      <c r="AD26">
+        <v>431.4</v>
+      </c>
+      <c r="AE26">
+        <v>703.3</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>632</v>
+      </c>
+      <c r="AJ26">
+        <v>4362</v>
+      </c>
+      <c r="AK26">
+        <v>94</v>
+      </c>
+      <c r="AL26">
         <v>921.7</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>44</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>46.8</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>104385</v>
+        <v>42145</v>
       </c>
       <c r="D27">
-        <v>1711.2</v>
+        <v>690.9</v>
       </c>
       <c r="E27">
-        <v>3818.9</v>
+        <v>1221.8</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2567,37 +3518,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I27">
-        <v>1279</v>
+        <v>795</v>
       </c>
       <c r="J27">
-        <v>22121</v>
+        <v>5353</v>
       </c>
       <c r="K27">
         <v>61</v>
       </c>
       <c r="L27">
-        <v>2982.4</v>
+        <v>1317</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>57.4</v>
+        <v>52.5</v>
       </c>
       <c r="O27">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P27">
-        <v>20746</v>
+        <v>23142</v>
       </c>
       <c r="Q27">
-        <v>340.1</v>
+        <v>379.4</v>
       </c>
       <c r="R27">
-        <v>769.1</v>
+        <v>1383.7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2606,43 +3557,82 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="W27">
-        <v>3550</v>
+        <v>10371</v>
       </c>
       <c r="X27">
         <v>61</v>
       </c>
       <c r="Y27">
+        <v>746.5</v>
+      </c>
+      <c r="Z27">
+        <v>31</v>
+      </c>
+      <c r="AA27">
+        <v>50.8</v>
+      </c>
+      <c r="AB27">
+        <v>-0.7</v>
+      </c>
+      <c r="AC27">
+        <v>20746</v>
+      </c>
+      <c r="AD27">
+        <v>340.1</v>
+      </c>
+      <c r="AE27">
+        <v>769.1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>225</v>
+      </c>
+      <c r="AJ27">
+        <v>3550</v>
+      </c>
+      <c r="AK27">
+        <v>61</v>
+      </c>
+      <c r="AL27">
         <v>1152.6</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>18</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>29.5</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>227526</v>
+        <v>99700</v>
       </c>
       <c r="D28">
-        <v>738.7</v>
+        <v>323.7</v>
       </c>
       <c r="E28">
-        <v>2447.7</v>
+        <v>659.6</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2651,37 +3641,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I28">
-        <v>594</v>
+        <v>378</v>
       </c>
       <c r="J28">
-        <v>30621</v>
+        <v>5055</v>
       </c>
       <c r="K28">
         <v>308</v>
       </c>
       <c r="L28">
-        <v>1099.2</v>
+        <v>536</v>
       </c>
       <c r="M28">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="N28">
-        <v>67.2</v>
+        <v>60.4</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>120296</v>
+        <v>31838</v>
       </c>
       <c r="Q28">
-        <v>390.6</v>
+        <v>103.4</v>
       </c>
       <c r="R28">
-        <v>2285.8</v>
+        <v>260.5</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2690,43 +3680,82 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>330.5</v>
+        <v>70.2</v>
       </c>
       <c r="W28">
-        <v>36948</v>
+        <v>1895</v>
       </c>
       <c r="X28">
         <v>308</v>
       </c>
       <c r="Y28">
+        <v>165.8</v>
+      </c>
+      <c r="Z28">
+        <v>192</v>
+      </c>
+      <c r="AA28">
+        <v>62.3</v>
+      </c>
+      <c r="AB28">
+        <v>0.1</v>
+      </c>
+      <c r="AC28">
+        <v>120296</v>
+      </c>
+      <c r="AD28">
+        <v>390.6</v>
+      </c>
+      <c r="AE28">
+        <v>2285.8</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>330.5</v>
+      </c>
+      <c r="AJ28">
+        <v>36948</v>
+      </c>
+      <c r="AK28">
+        <v>308</v>
+      </c>
+      <c r="AL28">
         <v>1113.9</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>108</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>35.1</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>12512</v>
+        <v>8198</v>
       </c>
       <c r="D29">
-        <v>2085.3</v>
+        <v>1366.3</v>
       </c>
       <c r="E29">
-        <v>2412.8</v>
+        <v>1598.5</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2735,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1455.5</v>
+        <v>966</v>
       </c>
       <c r="I29">
-        <v>3904.8</v>
+        <v>2417.2</v>
       </c>
       <c r="J29">
-        <v>5365</v>
+        <v>3687</v>
       </c>
       <c r="K29">
         <v>6</v>
       </c>
       <c r="L29">
-        <v>4170.7</v>
+        <v>2732.7</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -2756,16 +3785,16 @@
         <v>50</v>
       </c>
       <c r="O29">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="P29">
-        <v>2692</v>
+        <v>4273</v>
       </c>
       <c r="Q29">
-        <v>448.7</v>
+        <v>712.2</v>
       </c>
       <c r="R29">
-        <v>577.6</v>
+        <v>1005.1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2774,19 +3803,19 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>304.5</v>
+        <v>161</v>
       </c>
       <c r="V29">
-        <v>626.2</v>
+        <v>1333.8</v>
       </c>
       <c r="W29">
-        <v>1451</v>
+        <v>2280</v>
       </c>
       <c r="X29">
         <v>6</v>
       </c>
       <c r="Y29">
-        <v>897.3</v>
+        <v>1424.3</v>
       </c>
       <c r="Z29">
         <v>3</v>
@@ -2795,22 +3824,61 @@
         <v>50</v>
       </c>
       <c r="AB29">
+        <v>-0.8</v>
+      </c>
+      <c r="AC29">
+        <v>2692</v>
+      </c>
+      <c r="AD29">
+        <v>448.7</v>
+      </c>
+      <c r="AE29">
+        <v>577.6</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>304.5</v>
+      </c>
+      <c r="AI29">
+        <v>626.2</v>
+      </c>
+      <c r="AJ29">
+        <v>1451</v>
+      </c>
+      <c r="AK29">
+        <v>6</v>
+      </c>
+      <c r="AL29">
+        <v>897.3</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+      <c r="AN29">
+        <v>50</v>
+      </c>
+      <c r="AO29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>20949</v>
+        <v>3313</v>
       </c>
       <c r="D30">
-        <v>1496.4</v>
+        <v>236.6</v>
       </c>
       <c r="E30">
-        <v>4391.4</v>
+        <v>482.8</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2819,37 +3887,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>552.2</v>
+        <v>91.2</v>
       </c>
       <c r="J30">
-        <v>16598</v>
+        <v>1366</v>
       </c>
       <c r="K30">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>2327.7</v>
+        <v>552.2</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>64.3</v>
+        <v>42.9</v>
       </c>
       <c r="O30">
-        <v>-0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="P30">
-        <v>2988</v>
+        <v>1027</v>
       </c>
       <c r="Q30">
-        <v>213.4</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="R30">
-        <v>449.4</v>
+        <v>154.4</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2858,43 +3926,82 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V30">
-        <v>140.2</v>
+        <v>24.8</v>
       </c>
       <c r="W30">
-        <v>1574</v>
+        <v>522</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
+        <v>128.4</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>57.1</v>
+      </c>
+      <c r="AB30">
+        <v>-0.3</v>
+      </c>
+      <c r="AC30">
+        <v>2988</v>
+      </c>
+      <c r="AD30">
+        <v>213.4</v>
+      </c>
+      <c r="AE30">
+        <v>449.4</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>140.2</v>
+      </c>
+      <c r="AJ30">
+        <v>1574</v>
+      </c>
+      <c r="AK30">
+        <v>14</v>
+      </c>
+      <c r="AL30">
         <v>498</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>6</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>42.9</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>54954</v>
+        <v>22054</v>
       </c>
       <c r="D31">
-        <v>662.1</v>
+        <v>265.7</v>
       </c>
       <c r="E31">
-        <v>1799.3</v>
+        <v>542.5</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2903,37 +4010,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>495.5</v>
+        <v>191.5</v>
       </c>
       <c r="J31">
-        <v>11902</v>
+        <v>3052</v>
       </c>
       <c r="K31">
         <v>83</v>
       </c>
       <c r="L31">
-        <v>1249</v>
+        <v>580.4</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N31">
-        <v>53</v>
+        <v>45.8</v>
       </c>
       <c r="O31">
         <v>-1</v>
       </c>
       <c r="P31">
-        <v>29607</v>
+        <v>5130</v>
       </c>
       <c r="Q31">
-        <v>356.7</v>
+        <v>61.8</v>
       </c>
       <c r="R31">
-        <v>1026.2</v>
+        <v>180.7</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2945,40 +4052,79 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="W31">
-        <v>7664</v>
+        <v>1186</v>
       </c>
       <c r="X31">
         <v>83</v>
       </c>
       <c r="Y31">
+        <v>128.2</v>
+      </c>
+      <c r="Z31">
+        <v>40</v>
+      </c>
+      <c r="AA31">
+        <v>48.2</v>
+      </c>
+      <c r="AB31">
+        <v>-0.9</v>
+      </c>
+      <c r="AC31">
+        <v>29607</v>
+      </c>
+      <c r="AD31">
+        <v>356.7</v>
+      </c>
+      <c r="AE31">
+        <v>1026.2</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>192</v>
+      </c>
+      <c r="AJ31">
+        <v>7664</v>
+      </c>
+      <c r="AK31">
+        <v>83</v>
+      </c>
+      <c r="AL31">
         <v>1184.3</v>
       </c>
-      <c r="Z31">
+      <c r="AM31">
         <v>25</v>
       </c>
-      <c r="AA31">
+      <c r="AN31">
         <v>30.1</v>
       </c>
-      <c r="AB31">
+      <c r="AO31">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>229642</v>
+        <v>37885</v>
       </c>
       <c r="D32">
-        <v>3234.4</v>
+        <v>533.6</v>
       </c>
       <c r="E32">
-        <v>8918.9</v>
+        <v>1302.3</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2987,37 +4133,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1170.5</v>
+        <v>312.5</v>
       </c>
       <c r="J32">
-        <v>52507</v>
+        <v>7613</v>
       </c>
       <c r="K32">
         <v>71</v>
       </c>
       <c r="L32">
-        <v>6043.2</v>
+        <v>1222.1</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N32">
-        <v>53.5</v>
+        <v>43.7</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="P32">
-        <v>36390</v>
+        <v>15023</v>
       </c>
       <c r="Q32">
-        <v>512.5</v>
+        <v>211.6</v>
       </c>
       <c r="R32">
-        <v>1562.7</v>
+        <v>532.8</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3029,40 +4175,79 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>47.5</v>
+        <v>113.5</v>
       </c>
       <c r="W32">
-        <v>8880</v>
+        <v>2736</v>
       </c>
       <c r="X32">
         <v>71</v>
       </c>
       <c r="Y32">
+        <v>484.6</v>
+      </c>
+      <c r="Z32">
+        <v>31</v>
+      </c>
+      <c r="AA32">
+        <v>43.7</v>
+      </c>
+      <c r="AB32">
+        <v>-1.2</v>
+      </c>
+      <c r="AC32">
+        <v>36390</v>
+      </c>
+      <c r="AD32">
+        <v>512.5</v>
+      </c>
+      <c r="AE32">
+        <v>1562.7</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>47.5</v>
+      </c>
+      <c r="AJ32">
+        <v>8880</v>
+      </c>
+      <c r="AK32">
+        <v>71</v>
+      </c>
+      <c r="AL32">
         <v>2021.7</v>
       </c>
-      <c r="Z32">
+      <c r="AM32">
         <v>18</v>
       </c>
-      <c r="AA32">
+      <c r="AN32">
         <v>25.4</v>
       </c>
-      <c r="AB32">
+      <c r="AO32">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>315593</v>
+        <v>97044</v>
       </c>
       <c r="D33">
-        <v>1073.4</v>
+        <v>330.1</v>
       </c>
       <c r="E33">
-        <v>4122.8</v>
+        <v>891.2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3074,34 +4259,34 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>307</v>
+        <v>168.2</v>
       </c>
       <c r="J33">
-        <v>52506</v>
+        <v>6108</v>
       </c>
       <c r="K33">
         <v>294</v>
       </c>
       <c r="L33">
-        <v>2270.5</v>
+        <v>808.7</v>
       </c>
       <c r="M33">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="N33">
-        <v>47.3</v>
+        <v>40.8</v>
       </c>
       <c r="O33">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="P33">
-        <v>82279</v>
+        <v>21556</v>
       </c>
       <c r="Q33">
-        <v>279.9</v>
+        <v>73.3</v>
       </c>
       <c r="R33">
-        <v>1465.3</v>
+        <v>297.3</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3113,40 +4298,79 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="W33">
-        <v>21892</v>
+        <v>3183</v>
       </c>
       <c r="X33">
         <v>294</v>
       </c>
       <c r="Y33">
+        <v>178.1</v>
+      </c>
+      <c r="Z33">
+        <v>121</v>
+      </c>
+      <c r="AA33">
+        <v>41.2</v>
+      </c>
+      <c r="AB33">
+        <v>-1.4</v>
+      </c>
+      <c r="AC33">
+        <v>82279</v>
+      </c>
+      <c r="AD33">
+        <v>279.9</v>
+      </c>
+      <c r="AE33">
+        <v>1465.3</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>21892</v>
+      </c>
+      <c r="AK33">
+        <v>294</v>
+      </c>
+      <c r="AL33">
         <v>1348.8</v>
       </c>
-      <c r="Z33">
+      <c r="AM33">
         <v>61</v>
       </c>
-      <c r="AA33">
+      <c r="AN33">
         <v>20.7</v>
       </c>
-      <c r="AB33">
+      <c r="AO33">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>21819</v>
+        <v>5118</v>
       </c>
       <c r="D34">
-        <v>1558.5</v>
+        <v>365.6</v>
       </c>
       <c r="E34">
-        <v>2870.5</v>
+        <v>844.2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3155,37 +4379,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1069.8</v>
+        <v>290.8</v>
       </c>
       <c r="J34">
-        <v>9062</v>
+        <v>3116</v>
       </c>
       <c r="K34">
         <v>14</v>
       </c>
       <c r="L34">
-        <v>2424.3</v>
+        <v>731.1</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>64.3</v>
+        <v>50</v>
       </c>
       <c r="O34">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="P34">
-        <v>8100</v>
+        <v>1019</v>
       </c>
       <c r="Q34">
-        <v>578.6</v>
+        <v>72.8</v>
       </c>
       <c r="R34">
-        <v>1420.9</v>
+        <v>171.1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3194,43 +4418,82 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>526</v>
+        <v>10.2</v>
       </c>
       <c r="W34">
-        <v>5316</v>
+        <v>495</v>
       </c>
       <c r="X34">
         <v>14</v>
       </c>
       <c r="Y34">
+        <v>145.6</v>
+      </c>
+      <c r="Z34">
+        <v>7</v>
+      </c>
+      <c r="AA34">
+        <v>50</v>
+      </c>
+      <c r="AB34">
+        <v>-0.8</v>
+      </c>
+      <c r="AC34">
+        <v>8100</v>
+      </c>
+      <c r="AD34">
+        <v>578.6</v>
+      </c>
+      <c r="AE34">
+        <v>1420.9</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>526</v>
+      </c>
+      <c r="AJ34">
+        <v>5316</v>
+      </c>
+      <c r="AK34">
+        <v>14</v>
+      </c>
+      <c r="AL34">
         <v>1620</v>
       </c>
-      <c r="Z34">
+      <c r="AM34">
         <v>5</v>
       </c>
-      <c r="AA34">
+      <c r="AN34">
         <v>35.7</v>
       </c>
-      <c r="AB34">
+      <c r="AO34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>63903</v>
+        <v>51195</v>
       </c>
       <c r="D35">
-        <v>1936.5</v>
+        <v>1551.4</v>
       </c>
       <c r="E35">
-        <v>4594.9</v>
+        <v>3717.2</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3239,37 +4502,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I35">
-        <v>1930</v>
+        <v>1633</v>
       </c>
       <c r="J35">
-        <v>24665</v>
+        <v>19900</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35">
-        <v>3195.2</v>
+        <v>2694.5</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>60.6</v>
+        <v>57.6</v>
       </c>
       <c r="O35">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P35">
-        <v>4914</v>
+        <v>12560</v>
       </c>
       <c r="Q35">
-        <v>148.9</v>
+        <v>380.6</v>
       </c>
       <c r="R35">
-        <v>328.9</v>
+        <v>950.2</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3278,43 +4541,82 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W35">
-        <v>1322</v>
+        <v>4730</v>
       </c>
       <c r="X35">
         <v>33</v>
       </c>
       <c r="Y35">
+        <v>628</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35">
+        <v>60.6</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>4914</v>
+      </c>
+      <c r="AD35">
+        <v>148.9</v>
+      </c>
+      <c r="AE35">
+        <v>328.9</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1322</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+      <c r="AL35">
         <v>702</v>
       </c>
-      <c r="Z35">
+      <c r="AM35">
         <v>7</v>
       </c>
-      <c r="AA35">
+      <c r="AN35">
         <v>21.2</v>
       </c>
-      <c r="AB35">
+      <c r="AO35">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36">
-        <v>11912</v>
+        <v>9104</v>
       </c>
       <c r="D36">
-        <v>476.5</v>
+        <v>364.2</v>
       </c>
       <c r="E36">
-        <v>918.3</v>
+        <v>766.7</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3326,34 +4628,34 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="J36">
-        <v>3056</v>
+        <v>2832</v>
       </c>
       <c r="K36">
         <v>25</v>
       </c>
       <c r="L36">
-        <v>1191.2</v>
+        <v>1138</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O36">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="P36">
-        <v>6184</v>
+        <v>1606</v>
       </c>
       <c r="Q36">
-        <v>247.4</v>
+        <v>64.2</v>
       </c>
       <c r="R36">
-        <v>793.2</v>
+        <v>233.2</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3365,124 +4667,202 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W36">
-        <v>3642</v>
+        <v>1165</v>
       </c>
       <c r="X36">
         <v>25</v>
       </c>
       <c r="Y36">
+        <v>178.4</v>
+      </c>
+      <c r="Z36">
+        <v>9</v>
+      </c>
+      <c r="AA36">
+        <v>36</v>
+      </c>
+      <c r="AB36">
+        <v>-1.8</v>
+      </c>
+      <c r="AC36">
+        <v>6184</v>
+      </c>
+      <c r="AD36">
+        <v>247.4</v>
+      </c>
+      <c r="AE36">
+        <v>793.2</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>3642</v>
+      </c>
+      <c r="AK36">
+        <v>25</v>
+      </c>
+      <c r="AL36">
         <v>2061.3</v>
       </c>
-      <c r="Z36">
+      <c r="AM36">
         <v>3</v>
       </c>
-      <c r="AA36">
+      <c r="AN36">
         <v>12</v>
       </c>
-      <c r="AB36">
+      <c r="AO36">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>73398</v>
+        <v>24492</v>
       </c>
       <c r="D37">
-        <v>2158.8</v>
+        <v>720.4</v>
       </c>
       <c r="E37">
-        <v>4549.3</v>
+        <v>1177.3</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>364.5</v>
+        <v>142.5</v>
       </c>
       <c r="I37">
-        <v>1601.5</v>
+        <v>982.5</v>
       </c>
       <c r="J37">
-        <v>18679</v>
+        <v>4765</v>
       </c>
       <c r="K37">
         <v>34</v>
       </c>
       <c r="L37">
-        <v>2531</v>
+        <v>1020.5</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>85.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O37">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="P37">
-        <v>10648</v>
+        <v>17301</v>
       </c>
       <c r="Q37">
-        <v>313.2</v>
+        <v>508.9</v>
       </c>
       <c r="R37">
-        <v>497</v>
+        <v>1920.5</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V37">
-        <v>489</v>
+        <v>276</v>
       </c>
       <c r="W37">
-        <v>1721</v>
+        <v>11227</v>
       </c>
       <c r="X37">
         <v>34</v>
       </c>
       <c r="Y37">
+        <v>692</v>
+      </c>
+      <c r="Z37">
+        <v>25</v>
+      </c>
+      <c r="AA37">
+        <v>73.5</v>
+      </c>
+      <c r="AB37">
+        <v>0.9</v>
+      </c>
+      <c r="AC37">
+        <v>10648</v>
+      </c>
+      <c r="AD37">
+        <v>313.2</v>
+      </c>
+      <c r="AE37">
+        <v>497</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>489</v>
+      </c>
+      <c r="AJ37">
+        <v>1721</v>
+      </c>
+      <c r="AK37">
+        <v>34</v>
+      </c>
+      <c r="AL37">
         <v>665.5</v>
       </c>
-      <c r="Z37">
+      <c r="AM37">
         <v>16</v>
       </c>
-      <c r="AA37">
+      <c r="AN37">
         <v>47.1</v>
       </c>
-      <c r="AB37">
+      <c r="AO37">
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>144224</v>
+        <v>50855</v>
       </c>
       <c r="D38">
-        <v>1802.8</v>
+        <v>635.7</v>
       </c>
       <c r="E38">
-        <v>4974.8</v>
+        <v>1577.5</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3491,37 +4871,37 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1035.5</v>
+        <v>605.8</v>
       </c>
       <c r="J38">
-        <v>31042</v>
+        <v>10768</v>
       </c>
       <c r="K38">
         <v>80</v>
       </c>
       <c r="L38">
-        <v>3433.9</v>
+        <v>1338.3</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N38">
-        <v>52.5</v>
+        <v>47.5</v>
       </c>
       <c r="O38">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="P38">
-        <v>48916</v>
+        <v>39840</v>
       </c>
       <c r="Q38">
-        <v>611.4</v>
+        <v>498</v>
       </c>
       <c r="R38">
-        <v>4120.8</v>
+        <v>2480.3</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3533,40 +4913,79 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>78.2</v>
       </c>
       <c r="W38">
-        <v>36858</v>
+        <v>20111</v>
       </c>
       <c r="X38">
         <v>80</v>
       </c>
       <c r="Y38">
+        <v>1048.4</v>
+      </c>
+      <c r="Z38">
+        <v>38</v>
+      </c>
+      <c r="AA38">
+        <v>47.5</v>
+      </c>
+      <c r="AB38">
+        <v>-0.9</v>
+      </c>
+      <c r="AC38">
+        <v>48916</v>
+      </c>
+      <c r="AD38">
+        <v>611.4</v>
+      </c>
+      <c r="AE38">
+        <v>4120.8</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>36858</v>
+      </c>
+      <c r="AK38">
+        <v>80</v>
+      </c>
+      <c r="AL38">
         <v>3261.1</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>15</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>18.8</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>17376</v>
+        <v>12425</v>
       </c>
       <c r="D39">
-        <v>231.7</v>
+        <v>165.7</v>
       </c>
       <c r="E39">
-        <v>630.1</v>
+        <v>462.5</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3575,37 +4994,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>154.5</v>
+        <v>99</v>
       </c>
       <c r="J39">
-        <v>4261</v>
+        <v>3483</v>
       </c>
       <c r="K39">
         <v>75</v>
       </c>
       <c r="L39">
-        <v>457.3</v>
+        <v>365.4</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>50.7</v>
+        <v>45.3</v>
       </c>
       <c r="O39">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="P39">
-        <v>7493</v>
+        <v>2129</v>
       </c>
       <c r="Q39">
-        <v>99.90000000000001</v>
+        <v>28.4</v>
       </c>
       <c r="R39">
-        <v>312.3</v>
+        <v>96.5</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3617,124 +5036,202 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="W39">
-        <v>2234</v>
+        <v>767</v>
       </c>
       <c r="X39">
         <v>75</v>
       </c>
       <c r="Y39">
+        <v>60.8</v>
+      </c>
+      <c r="Z39">
+        <v>35</v>
+      </c>
+      <c r="AA39">
+        <v>46.7</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
+        <v>7493</v>
+      </c>
+      <c r="AD39">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AE39">
+        <v>312.3</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>2234</v>
+      </c>
+      <c r="AK39">
+        <v>75</v>
+      </c>
+      <c r="AL39">
         <v>576.4</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>13</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>17.3</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>33035</v>
+        <v>11226</v>
       </c>
       <c r="D40">
-        <v>3003.2</v>
+        <v>1020.5</v>
       </c>
       <c r="E40">
-        <v>4321.1</v>
+        <v>1220.2</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>91.5</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1139</v>
+        <v>203</v>
       </c>
       <c r="I40">
-        <v>4017.5</v>
+        <v>1994</v>
       </c>
       <c r="J40">
-        <v>13909</v>
+        <v>3159</v>
       </c>
       <c r="K40">
         <v>11</v>
       </c>
       <c r="L40">
-        <v>3670.6</v>
+        <v>1403.2</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>81.8</v>
+        <v>72.7</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P40">
-        <v>4361</v>
+        <v>7823</v>
       </c>
       <c r="Q40">
-        <v>396.5</v>
+        <v>711.2</v>
       </c>
       <c r="R40">
-        <v>662.2</v>
+        <v>1393.4</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V40">
-        <v>678.5</v>
+        <v>760</v>
       </c>
       <c r="W40">
-        <v>2030</v>
+        <v>4541</v>
       </c>
       <c r="X40">
         <v>11</v>
       </c>
       <c r="Y40">
+        <v>977.9</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <v>72.7</v>
+      </c>
+      <c r="AB40">
+        <v>0.9</v>
+      </c>
+      <c r="AC40">
+        <v>4361</v>
+      </c>
+      <c r="AD40">
+        <v>396.5</v>
+      </c>
+      <c r="AE40">
+        <v>662.2</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>678.5</v>
+      </c>
+      <c r="AJ40">
+        <v>2030</v>
+      </c>
+      <c r="AK40">
+        <v>11</v>
+      </c>
+      <c r="AL40">
         <v>1090.2</v>
       </c>
-      <c r="Z40">
+      <c r="AM40">
         <v>4</v>
       </c>
-      <c r="AA40">
+      <c r="AN40">
         <v>36.4</v>
       </c>
-      <c r="AB40">
+      <c r="AO40">
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>114741</v>
+        <v>18371</v>
       </c>
       <c r="D41">
-        <v>1912.4</v>
+        <v>306.2</v>
       </c>
       <c r="E41">
-        <v>6998.3</v>
+        <v>641.1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3743,37 +5240,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>26.5</v>
+        <v>1.5</v>
       </c>
       <c r="I41">
-        <v>820.8</v>
+        <v>421</v>
       </c>
       <c r="J41">
-        <v>47158</v>
+        <v>3970</v>
       </c>
       <c r="K41">
         <v>60</v>
       </c>
       <c r="L41">
-        <v>3278.3</v>
+        <v>592.6</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>58.3</v>
+        <v>51.7</v>
       </c>
       <c r="O41">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P41">
-        <v>33174</v>
+        <v>10786</v>
       </c>
       <c r="Q41">
-        <v>552.9</v>
+        <v>179.8</v>
       </c>
       <c r="R41">
-        <v>2630.5</v>
+        <v>801.1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3782,43 +5279,82 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V41">
-        <v>317</v>
+        <v>54.5</v>
       </c>
       <c r="W41">
-        <v>20246</v>
+        <v>6137</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="Y41">
+        <v>359.5</v>
+      </c>
+      <c r="Z41">
+        <v>30</v>
+      </c>
+      <c r="AA41">
+        <v>50</v>
+      </c>
+      <c r="AB41">
+        <v>-0.8</v>
+      </c>
+      <c r="AC41">
+        <v>33174</v>
+      </c>
+      <c r="AD41">
+        <v>552.9</v>
+      </c>
+      <c r="AE41">
+        <v>2630.5</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>317</v>
+      </c>
+      <c r="AJ41">
+        <v>20246</v>
+      </c>
+      <c r="AK41">
+        <v>60</v>
+      </c>
+      <c r="AL41">
         <v>1507.9</v>
       </c>
-      <c r="Z41">
+      <c r="AM41">
         <v>22</v>
       </c>
-      <c r="AA41">
+      <c r="AN41">
         <v>36.7</v>
       </c>
-      <c r="AB41">
+      <c r="AO41">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>122305</v>
+        <v>12743</v>
       </c>
       <c r="D42">
-        <v>4368</v>
+        <v>455.1</v>
       </c>
       <c r="E42">
-        <v>9779.5</v>
+        <v>821.5</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3827,37 +5363,37 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>297.5</v>
+        <v>42.5</v>
       </c>
       <c r="I42">
-        <v>1989.2</v>
+        <v>418.2</v>
       </c>
       <c r="J42">
-        <v>40453</v>
+        <v>3039</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>6115.2</v>
+        <v>796.4</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N42">
-        <v>71.40000000000001</v>
+        <v>57.1</v>
       </c>
       <c r="O42">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P42">
-        <v>6145</v>
+        <v>4564</v>
       </c>
       <c r="Q42">
-        <v>219.5</v>
+        <v>163</v>
       </c>
       <c r="R42">
-        <v>540.7</v>
+        <v>416.1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -3866,43 +5402,82 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="V42">
-        <v>14.2</v>
+        <v>87</v>
       </c>
       <c r="W42">
-        <v>2410</v>
+        <v>1644</v>
       </c>
       <c r="X42">
         <v>28</v>
       </c>
       <c r="Y42">
+        <v>304.3</v>
+      </c>
+      <c r="Z42">
+        <v>15</v>
+      </c>
+      <c r="AA42">
+        <v>53.6</v>
+      </c>
+      <c r="AB42">
+        <v>-0.5</v>
+      </c>
+      <c r="AC42">
+        <v>6145</v>
+      </c>
+      <c r="AD42">
+        <v>219.5</v>
+      </c>
+      <c r="AE42">
+        <v>540.7</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>14.2</v>
+      </c>
+      <c r="AJ42">
+        <v>2410</v>
+      </c>
+      <c r="AK42">
+        <v>28</v>
+      </c>
+      <c r="AL42">
         <v>877.9</v>
       </c>
-      <c r="Z42">
+      <c r="AM42">
         <v>7</v>
       </c>
-      <c r="AA42">
+      <c r="AN42">
         <v>25</v>
       </c>
-      <c r="AB42">
+      <c r="AO42">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>217912</v>
+        <v>109383</v>
       </c>
       <c r="D43">
-        <v>1424.3</v>
+        <v>714.9</v>
       </c>
       <c r="E43">
-        <v>6201.5</v>
+        <v>3907.2</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3911,37 +5486,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>574</v>
+        <v>419</v>
       </c>
       <c r="J43">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K43">
         <v>153</v>
       </c>
       <c r="L43">
-        <v>2476.3</v>
+        <v>1420.6</v>
       </c>
       <c r="M43">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="N43">
-        <v>57.5</v>
+        <v>50.3</v>
       </c>
       <c r="O43">
         <v>-0.7</v>
       </c>
       <c r="P43">
-        <v>38013</v>
+        <v>43305</v>
       </c>
       <c r="Q43">
-        <v>248.5</v>
+        <v>283</v>
       </c>
       <c r="R43">
-        <v>438.6</v>
+        <v>1714.4</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3950,43 +5525,82 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V43">
-        <v>375</v>
+        <v>66</v>
       </c>
       <c r="W43">
-        <v>2151</v>
+        <v>20884</v>
       </c>
       <c r="X43">
         <v>153</v>
       </c>
       <c r="Y43">
+        <v>534.6</v>
+      </c>
+      <c r="Z43">
+        <v>81</v>
+      </c>
+      <c r="AA43">
+        <v>52.9</v>
+      </c>
+      <c r="AB43">
+        <v>-0.6</v>
+      </c>
+      <c r="AC43">
+        <v>38013</v>
+      </c>
+      <c r="AD43">
+        <v>248.5</v>
+      </c>
+      <c r="AE43">
+        <v>438.6</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>375</v>
+      </c>
+      <c r="AJ43">
+        <v>2151</v>
+      </c>
+      <c r="AK43">
+        <v>153</v>
+      </c>
+      <c r="AL43">
         <v>623.2</v>
       </c>
-      <c r="Z43">
+      <c r="AM43">
         <v>61</v>
       </c>
-      <c r="AA43">
+      <c r="AN43">
         <v>39.9</v>
       </c>
-      <c r="AB43">
+      <c r="AO43">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>12790</v>
+        <v>5760</v>
       </c>
       <c r="D44">
-        <v>581.4</v>
+        <v>261.8</v>
       </c>
       <c r="E44">
-        <v>1403.7</v>
+        <v>456.1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3995,37 +5609,37 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>574</v>
+        <v>424.5</v>
       </c>
       <c r="J44">
-        <v>6490</v>
+        <v>1755</v>
       </c>
       <c r="K44">
         <v>22</v>
       </c>
       <c r="L44">
-        <v>1065.8</v>
+        <v>523.6</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N44">
-        <v>54.5</v>
+        <v>50</v>
       </c>
       <c r="O44">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P44">
-        <v>3371</v>
+        <v>539</v>
       </c>
       <c r="Q44">
-        <v>153.2</v>
+        <v>24.5</v>
       </c>
       <c r="R44">
-        <v>517.2</v>
+        <v>43.2</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4037,40 +5651,79 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="W44">
-        <v>2344</v>
+        <v>125</v>
       </c>
       <c r="X44">
         <v>22</v>
       </c>
       <c r="Y44">
+        <v>59.9</v>
+      </c>
+      <c r="Z44">
+        <v>9</v>
+      </c>
+      <c r="AA44">
+        <v>40.9</v>
+      </c>
+      <c r="AB44">
+        <v>-1.4</v>
+      </c>
+      <c r="AC44">
+        <v>3371</v>
+      </c>
+      <c r="AD44">
+        <v>153.2</v>
+      </c>
+      <c r="AE44">
+        <v>517.2</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>2344</v>
+      </c>
+      <c r="AK44">
+        <v>22</v>
+      </c>
+      <c r="AL44">
         <v>1123.7</v>
       </c>
-      <c r="Z44">
+      <c r="AM44">
         <v>3</v>
       </c>
-      <c r="AA44">
+      <c r="AN44">
         <v>13.6</v>
       </c>
-      <c r="AB44">
+      <c r="AO44">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>262670</v>
+        <v>83644</v>
       </c>
       <c r="D45">
-        <v>1427.6</v>
+        <v>454.6</v>
       </c>
       <c r="E45">
-        <v>6066.9</v>
+        <v>1053.1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4079,37 +5732,37 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>745.2</v>
+        <v>513.2</v>
       </c>
       <c r="J45">
-        <v>72982</v>
+        <v>8541</v>
       </c>
       <c r="K45">
         <v>184</v>
       </c>
       <c r="L45">
-        <v>2626.7</v>
+        <v>939.8</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N45">
-        <v>54.3</v>
+        <v>48.4</v>
       </c>
       <c r="O45">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="P45">
-        <v>37918</v>
+        <v>33278</v>
       </c>
       <c r="Q45">
-        <v>206.1</v>
+        <v>180.9</v>
       </c>
       <c r="R45">
-        <v>456.9</v>
+        <v>553.3</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4118,34 +5771,74 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V45">
-        <v>139.8</v>
+        <v>78</v>
       </c>
       <c r="W45">
-        <v>2696</v>
+        <v>4057</v>
       </c>
       <c r="X45">
         <v>184</v>
       </c>
       <c r="Y45">
+        <v>357.8</v>
+      </c>
+      <c r="Z45">
+        <v>93</v>
+      </c>
+      <c r="AA45">
+        <v>50.5</v>
+      </c>
+      <c r="AB45">
+        <v>-0.7</v>
+      </c>
+      <c r="AC45">
+        <v>37918</v>
+      </c>
+      <c r="AD45">
+        <v>206.1</v>
+      </c>
+      <c r="AE45">
+        <v>456.9</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>139.8</v>
+      </c>
+      <c r="AJ45">
+        <v>2696</v>
+      </c>
+      <c r="AK45">
+        <v>184</v>
+      </c>
+      <c r="AL45">
         <v>743.5</v>
       </c>
-      <c r="Z45">
+      <c r="AM45">
         <v>51</v>
       </c>
-      <c r="AA45">
+      <c r="AN45">
         <v>27.7</v>
       </c>
-      <c r="AB45">
+      <c r="AO45">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="A25:A45"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-subject_matter_simpl/museum_activity_groups__var2-accreditation-subject_matter_simpl.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-subject_matter_simpl/museum_activity_groups__var2-accreditation-subject_matter_simpl.xlsx
@@ -684,91 +684,91 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>97816</v>
+        <v>108719</v>
       </c>
       <c r="D4">
-        <v>1845.6</v>
+        <v>2051.3</v>
       </c>
       <c r="E4">
-        <v>6568.7</v>
+        <v>7025</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="I4">
-        <v>1152</v>
+        <v>1397</v>
       </c>
       <c r="J4">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K4">
         <v>53</v>
       </c>
       <c r="L4">
-        <v>2445.4</v>
+        <v>2787.7</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4">
-        <v>75.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="O4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>23200</v>
+        <v>27781</v>
       </c>
       <c r="Q4">
-        <v>437.7</v>
+        <v>524.2</v>
       </c>
       <c r="R4">
-        <v>1214.3</v>
+        <v>1541.7</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="V4">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="W4">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X4">
         <v>53</v>
       </c>
       <c r="Y4">
-        <v>580</v>
+        <v>712.3</v>
       </c>
       <c r="Z4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4">
-        <v>75.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AB4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>17916</v>
+        <v>31610</v>
       </c>
       <c r="AD4">
-        <v>338</v>
+        <v>596.4</v>
       </c>
       <c r="AE4">
-        <v>525.9</v>
+        <v>849.7</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -777,28 +777,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AI4">
-        <v>619</v>
+        <v>836</v>
       </c>
       <c r="AJ4">
-        <v>1756</v>
+        <v>4716</v>
       </c>
       <c r="AK4">
         <v>53</v>
       </c>
       <c r="AL4">
-        <v>895.8</v>
+        <v>831.8</v>
       </c>
       <c r="AM4">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AN4">
-        <v>37.7</v>
+        <v>71.7</v>
       </c>
       <c r="AO4">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -807,91 +807,91 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>221192</v>
+        <v>255035</v>
       </c>
       <c r="D5">
-        <v>1445.7</v>
+        <v>1666.9</v>
       </c>
       <c r="E5">
-        <v>1852</v>
+        <v>2162.5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>823</v>
+        <v>934</v>
       </c>
       <c r="I5">
-        <v>2171</v>
+        <v>2387</v>
       </c>
       <c r="J5">
-        <v>10957</v>
+        <v>13083</v>
       </c>
       <c r="K5">
         <v>153</v>
       </c>
       <c r="L5">
-        <v>1874.5</v>
+        <v>2217.7</v>
       </c>
       <c r="M5">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N5">
-        <v>77.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="O5">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P5">
-        <v>78146</v>
+        <v>89763</v>
       </c>
       <c r="Q5">
-        <v>510.8</v>
+        <v>586.7</v>
       </c>
       <c r="R5">
-        <v>1226.8</v>
+        <v>1487</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="V5">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="W5">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X5">
         <v>153</v>
       </c>
       <c r="Y5">
-        <v>656.7</v>
+        <v>773.8</v>
       </c>
       <c r="Z5">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AA5">
-        <v>77.8</v>
+        <v>75.8</v>
       </c>
       <c r="AB5">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC5">
-        <v>82444</v>
+        <v>113287</v>
       </c>
       <c r="AD5">
-        <v>538.8</v>
+        <v>740.4</v>
       </c>
       <c r="AE5">
-        <v>731.8</v>
+        <v>875.8</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -900,28 +900,28 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>190</v>
+        <v>484</v>
       </c>
       <c r="AI5">
-        <v>895</v>
+        <v>1186</v>
       </c>
       <c r="AJ5">
-        <v>4241</v>
+        <v>5325</v>
       </c>
       <c r="AK5">
         <v>153</v>
       </c>
       <c r="AL5">
-        <v>1005.4</v>
+        <v>1029.9</v>
       </c>
       <c r="AM5">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="AN5">
-        <v>53.6</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="AO5">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -930,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>23669</v>
+        <v>28624</v>
       </c>
       <c r="D6">
-        <v>696.1</v>
+        <v>841.9</v>
       </c>
       <c r="E6">
-        <v>1437.6</v>
+        <v>1735.1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>171</v>
+        <v>252.5</v>
       </c>
       <c r="I6">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="J6">
-        <v>7432</v>
+        <v>8788</v>
       </c>
       <c r="K6">
         <v>34</v>
       </c>
       <c r="L6">
-        <v>1183.4</v>
+        <v>1431.2</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -966,16 +966,16 @@
         <v>58.8</v>
       </c>
       <c r="O6">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>9394</v>
+        <v>10438</v>
       </c>
       <c r="Q6">
-        <v>276.3</v>
+        <v>307</v>
       </c>
       <c r="R6">
-        <v>852.7</v>
+        <v>907.9</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="V6">
-        <v>139.2</v>
+        <v>188.2</v>
       </c>
       <c r="W6">
-        <v>4532</v>
+        <v>4686</v>
       </c>
       <c r="X6">
         <v>34</v>
       </c>
       <c r="Y6">
-        <v>469.7</v>
+        <v>521.9</v>
       </c>
       <c r="Z6">
         <v>20</v>
@@ -1008,43 +1008,43 @@
         <v>-0.1</v>
       </c>
       <c r="AC6">
-        <v>7824</v>
+        <v>12980</v>
       </c>
       <c r="AD6">
-        <v>230.1</v>
+        <v>381.8</v>
       </c>
       <c r="AE6">
-        <v>390.5</v>
+        <v>456.1</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="AI6">
-        <v>395.8</v>
+        <v>577.8</v>
       </c>
       <c r="AJ6">
-        <v>1678</v>
+        <v>1831</v>
       </c>
       <c r="AK6">
         <v>34</v>
       </c>
       <c r="AL6">
-        <v>558.9</v>
+        <v>480.7</v>
       </c>
       <c r="AM6">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AN6">
-        <v>41.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1053,121 +1053,121 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>165384</v>
+        <v>193463</v>
       </c>
       <c r="D7">
-        <v>677.8</v>
+        <v>792.9</v>
       </c>
       <c r="E7">
-        <v>1034.7</v>
+        <v>1250.2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H7">
-        <v>369</v>
+        <v>430.5</v>
       </c>
       <c r="I7">
-        <v>923</v>
+        <v>1099.2</v>
       </c>
       <c r="J7">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K7">
         <v>244</v>
       </c>
       <c r="L7">
-        <v>884.4</v>
+        <v>1057.2</v>
       </c>
       <c r="M7">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N7">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="O7">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P7">
-        <v>46595</v>
+        <v>52626</v>
       </c>
       <c r="Q7">
-        <v>191</v>
+        <v>215.7</v>
       </c>
       <c r="R7">
-        <v>384.9</v>
+        <v>441.3</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="U7">
-        <v>66.5</v>
+        <v>80</v>
       </c>
       <c r="V7">
-        <v>227.2</v>
+        <v>249.2</v>
       </c>
       <c r="W7">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="X7">
         <v>244</v>
       </c>
       <c r="Y7">
-        <v>245.2</v>
+        <v>281.4</v>
       </c>
       <c r="Z7">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AA7">
-        <v>77.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="AB7">
         <v>1.2</v>
       </c>
       <c r="AC7">
-        <v>65448</v>
+        <v>121728</v>
       </c>
       <c r="AD7">
-        <v>268.2</v>
+        <v>498.9</v>
       </c>
       <c r="AE7">
-        <v>371.7</v>
+        <v>508.6</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AI7">
-        <v>476</v>
+        <v>736.2</v>
       </c>
       <c r="AJ7">
-        <v>2516</v>
+        <v>3392</v>
       </c>
       <c r="AK7">
         <v>244</v>
       </c>
       <c r="AL7">
-        <v>559.4</v>
+        <v>627.5</v>
       </c>
       <c r="AM7">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="AN7">
-        <v>48</v>
+        <v>79.5</v>
       </c>
       <c r="AO7">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1176,13 +1176,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>6965</v>
+        <v>7714</v>
       </c>
       <c r="D8">
-        <v>995</v>
+        <v>1102</v>
       </c>
       <c r="E8">
-        <v>1447.8</v>
+        <v>1641.3</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>1674.5</v>
+        <v>1797</v>
       </c>
       <c r="J8">
-        <v>3607</v>
+        <v>4111</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1393</v>
+        <v>1542.8</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1212,16 +1212,16 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P8">
-        <v>2544</v>
+        <v>2815</v>
       </c>
       <c r="Q8">
-        <v>363.4</v>
+        <v>402.1</v>
       </c>
       <c r="R8">
-        <v>672</v>
+        <v>755.1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1233,16 +1233,16 @@
         <v>4</v>
       </c>
       <c r="V8">
-        <v>349.5</v>
+        <v>371.5</v>
       </c>
       <c r="W8">
-        <v>1841</v>
+        <v>2068</v>
       </c>
       <c r="X8">
         <v>7</v>
       </c>
       <c r="Y8">
-        <v>636</v>
+        <v>703.8</v>
       </c>
       <c r="Z8">
         <v>4</v>
@@ -1251,46 +1251,46 @@
         <v>57.1</v>
       </c>
       <c r="AB8">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AC8">
-        <v>2434</v>
+        <v>3581</v>
       </c>
       <c r="AD8">
-        <v>347.7</v>
+        <v>511.6</v>
       </c>
       <c r="AE8">
-        <v>609</v>
+        <v>702.6</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AI8">
-        <v>491.5</v>
+        <v>866</v>
       </c>
       <c r="AJ8">
-        <v>1451</v>
+        <v>1727</v>
       </c>
       <c r="AK8">
         <v>7</v>
       </c>
       <c r="AL8">
-        <v>1217</v>
+        <v>716.2</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN8">
-        <v>28.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO8">
-        <v>-0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1299,31 +1299,31 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="D9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="F9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="G9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="H9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="I9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="J9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1332,34 +1332,34 @@
         <v>100</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="Q9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="S9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="T9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="U9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="V9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="W9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="AB9">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>-2.4</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1410,13 +1410,13 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>53747</v>
+        <v>61899</v>
       </c>
       <c r="D10">
-        <v>790.4</v>
+        <v>910.3</v>
       </c>
       <c r="E10">
-        <v>1419</v>
+        <v>1619</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1425,76 +1425,76 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>256.5</v>
+        <v>217.5</v>
       </c>
       <c r="I10">
-        <v>1002</v>
+        <v>1141.8</v>
       </c>
       <c r="J10">
-        <v>8460</v>
+        <v>9116</v>
       </c>
       <c r="K10">
         <v>68</v>
       </c>
       <c r="L10">
-        <v>1096.9</v>
+        <v>1317</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>72.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="O10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P10">
-        <v>17619</v>
+        <v>19640</v>
       </c>
       <c r="Q10">
-        <v>259.1</v>
+        <v>288.8</v>
       </c>
       <c r="R10">
-        <v>525.4</v>
+        <v>600.8</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
       <c r="V10">
-        <v>207.2</v>
+        <v>212</v>
       </c>
       <c r="W10">
-        <v>3021</v>
+        <v>3242</v>
       </c>
       <c r="X10">
         <v>68</v>
       </c>
       <c r="Y10">
-        <v>338.8</v>
+        <v>392.8</v>
       </c>
       <c r="Z10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA10">
-        <v>76.5</v>
+        <v>73.5</v>
       </c>
       <c r="AB10">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>28455</v>
+        <v>33483</v>
       </c>
       <c r="AD10">
-        <v>418.5</v>
+        <v>492.4</v>
       </c>
       <c r="AE10">
-        <v>749</v>
+        <v>534.2</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1503,28 +1503,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="AI10">
-        <v>605.2</v>
+        <v>785</v>
       </c>
       <c r="AJ10">
-        <v>5271</v>
+        <v>2042</v>
       </c>
       <c r="AK10">
         <v>68</v>
       </c>
       <c r="AL10">
-        <v>836.9</v>
+        <v>669.7</v>
       </c>
       <c r="AM10">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AN10">
-        <v>50</v>
+        <v>73.5</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1533,13 +1533,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>14175</v>
+        <v>16292</v>
       </c>
       <c r="D11">
-        <v>885.9</v>
+        <v>1018.2</v>
       </c>
       <c r="E11">
-        <v>1645.9</v>
+        <v>1907.4</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1548,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>75.5</v>
+        <v>97.5</v>
       </c>
       <c r="I11">
-        <v>1447</v>
+        <v>1675.5</v>
       </c>
       <c r="J11">
-        <v>6521</v>
+        <v>7576</v>
       </c>
       <c r="K11">
         <v>16</v>
       </c>
       <c r="L11">
-        <v>1417.5</v>
+        <v>1629.2</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1572,13 +1572,13 @@
         <v>0.2</v>
       </c>
       <c r="P11">
-        <v>6675</v>
+        <v>7230</v>
       </c>
       <c r="Q11">
-        <v>417.2</v>
+        <v>451.9</v>
       </c>
       <c r="R11">
-        <v>1277</v>
+        <v>1347.5</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V11">
-        <v>187.2</v>
+        <v>230.2</v>
       </c>
       <c r="W11">
-        <v>5171</v>
+        <v>5461</v>
       </c>
       <c r="X11">
         <v>16</v>
       </c>
       <c r="Y11">
-        <v>667.5</v>
+        <v>723</v>
       </c>
       <c r="Z11">
         <v>10</v>
@@ -1608,16 +1608,16 @@
         <v>62.5</v>
       </c>
       <c r="AB11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11">
-        <v>6152</v>
+        <v>5737</v>
       </c>
       <c r="AD11">
-        <v>384.5</v>
+        <v>358.6</v>
       </c>
       <c r="AE11">
-        <v>547.8</v>
+        <v>452</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1626,28 +1626,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="AI11">
-        <v>524</v>
+        <v>629.2</v>
       </c>
       <c r="AJ11">
-        <v>1837</v>
+        <v>1624</v>
       </c>
       <c r="AK11">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>769</v>
+        <v>573.7</v>
       </c>
       <c r="AM11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN11">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1656,13 +1656,13 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>323257</v>
+        <v>391881</v>
       </c>
       <c r="D12">
-        <v>687.8</v>
+        <v>833.8</v>
       </c>
       <c r="E12">
-        <v>2416.4</v>
+        <v>3105.4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1671,37 +1671,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>73.5</v>
+        <v>68.5</v>
       </c>
       <c r="I12">
-        <v>646</v>
+        <v>746.5</v>
       </c>
       <c r="J12">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K12">
         <v>470</v>
       </c>
       <c r="L12">
-        <v>1134.2</v>
+        <v>1404.6</v>
       </c>
       <c r="M12">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N12">
-        <v>60.6</v>
+        <v>59.4</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>71316</v>
+        <v>88209</v>
       </c>
       <c r="Q12">
-        <v>151.7</v>
+        <v>187.7</v>
       </c>
       <c r="R12">
-        <v>638.1</v>
+        <v>935.7</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1713,34 +1713,34 @@
         <v>8</v>
       </c>
       <c r="V12">
-        <v>88.2</v>
+        <v>95.8</v>
       </c>
       <c r="W12">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X12">
         <v>470</v>
       </c>
       <c r="Y12">
-        <v>252</v>
+        <v>317.3</v>
       </c>
       <c r="Z12">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AA12">
-        <v>60.2</v>
+        <v>59.1</v>
       </c>
       <c r="AB12">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC12">
-        <v>149816</v>
+        <v>191226</v>
       </c>
       <c r="AD12">
-        <v>318.8</v>
+        <v>406.9</v>
       </c>
       <c r="AE12">
-        <v>837.2</v>
+        <v>721.6</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1749,28 +1749,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="AI12">
-        <v>262.8</v>
+        <v>538</v>
       </c>
       <c r="AJ12">
-        <v>6887</v>
+        <v>8295</v>
       </c>
       <c r="AK12">
         <v>470</v>
       </c>
       <c r="AL12">
-        <v>1033.2</v>
+        <v>643.9</v>
       </c>
       <c r="AM12">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="AN12">
-        <v>30.9</v>
+        <v>63.2</v>
       </c>
       <c r="AO12">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1779,13 +1779,13 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>22093</v>
+        <v>26259</v>
       </c>
       <c r="D13">
-        <v>1104.6</v>
+        <v>1313</v>
       </c>
       <c r="E13">
-        <v>1153</v>
+        <v>1381</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1082</v>
+        <v>1331.5</v>
       </c>
       <c r="I13">
-        <v>1944.8</v>
+        <v>2329.2</v>
       </c>
       <c r="J13">
-        <v>4125</v>
+        <v>4997</v>
       </c>
       <c r="K13">
         <v>20</v>
       </c>
       <c r="L13">
-        <v>1699.5</v>
+        <v>2019.9</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1818,13 +1818,13 @@
         <v>0.4</v>
       </c>
       <c r="P13">
-        <v>8548</v>
+        <v>9755</v>
       </c>
       <c r="Q13">
-        <v>427.4</v>
+        <v>487.8</v>
       </c>
       <c r="R13">
-        <v>620.1</v>
+        <v>700.2</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1833,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>157</v>
+        <v>210.5</v>
       </c>
       <c r="V13">
-        <v>550.8</v>
+        <v>647</v>
       </c>
       <c r="W13">
-        <v>2057</v>
+        <v>2377</v>
       </c>
       <c r="X13">
         <v>20</v>
       </c>
       <c r="Y13">
-        <v>657.5</v>
+        <v>750.4</v>
       </c>
       <c r="Z13">
         <v>13</v>
@@ -1857,13 +1857,13 @@
         <v>0.3</v>
       </c>
       <c r="AC13">
-        <v>6466</v>
+        <v>10649</v>
       </c>
       <c r="AD13">
-        <v>323.3</v>
+        <v>532.4</v>
       </c>
       <c r="AE13">
-        <v>529.3</v>
+        <v>662.2</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1872,28 +1872,28 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="AI13">
-        <v>805.2</v>
+        <v>941.5</v>
       </c>
       <c r="AJ13">
-        <v>1650</v>
+        <v>2139</v>
       </c>
       <c r="AK13">
         <v>20</v>
       </c>
       <c r="AL13">
-        <v>923.7</v>
+        <v>968.1</v>
       </c>
       <c r="AM13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AN13">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1902,121 +1902,121 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>212940</v>
+        <v>251950</v>
       </c>
       <c r="D14">
-        <v>1601.1</v>
+        <v>1894.4</v>
       </c>
       <c r="E14">
-        <v>2120.7</v>
+        <v>2465.5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="H14">
-        <v>946</v>
+        <v>1116</v>
       </c>
       <c r="I14">
-        <v>2058</v>
+        <v>2547</v>
       </c>
       <c r="J14">
-        <v>13583</v>
+        <v>14733</v>
       </c>
       <c r="K14">
         <v>133</v>
       </c>
       <c r="L14">
-        <v>1990.1</v>
+        <v>2376.9</v>
       </c>
       <c r="M14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N14">
-        <v>80.5</v>
+        <v>79.7</v>
       </c>
       <c r="O14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P14">
-        <v>87990</v>
+        <v>100436</v>
       </c>
       <c r="Q14">
-        <v>661.6</v>
+        <v>755.2</v>
       </c>
       <c r="R14">
-        <v>2105.9</v>
+        <v>2357.1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U14">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="V14">
-        <v>468</v>
+        <v>563</v>
       </c>
       <c r="W14">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X14">
         <v>133</v>
       </c>
       <c r="Y14">
-        <v>807.2</v>
+        <v>930</v>
       </c>
       <c r="Z14">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA14">
-        <v>82</v>
+        <v>81.2</v>
       </c>
       <c r="AB14">
         <v>1.5</v>
       </c>
       <c r="AC14">
-        <v>96975</v>
+        <v>113301</v>
       </c>
       <c r="AD14">
-        <v>729.1</v>
+        <v>851.9</v>
       </c>
       <c r="AE14">
-        <v>934.9</v>
+        <v>750</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="AH14">
-        <v>586</v>
+        <v>853</v>
       </c>
       <c r="AI14">
-        <v>1060</v>
+        <v>1330</v>
       </c>
       <c r="AJ14">
-        <v>6448</v>
+        <v>3410</v>
       </c>
       <c r="AK14">
         <v>133</v>
       </c>
       <c r="AL14">
-        <v>1089.6</v>
+        <v>1079.1</v>
       </c>
       <c r="AM14">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="AN14">
-        <v>66.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AO14">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2025,121 +2025,121 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>47150</v>
+        <v>50842</v>
       </c>
       <c r="D15">
-        <v>2143.2</v>
+        <v>2311</v>
       </c>
       <c r="E15">
-        <v>2602</v>
+        <v>3075</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>112.8</v>
+        <v>27.2</v>
       </c>
       <c r="H15">
-        <v>1499.5</v>
+        <v>1445.5</v>
       </c>
       <c r="I15">
-        <v>2942.2</v>
+        <v>3250.2</v>
       </c>
       <c r="J15">
-        <v>10793</v>
+        <v>12666</v>
       </c>
       <c r="K15">
         <v>22</v>
       </c>
       <c r="L15">
-        <v>2773.5</v>
+        <v>3177.6</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>77.3</v>
+        <v>72.7</v>
       </c>
       <c r="O15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>23139</v>
+        <v>25322</v>
       </c>
       <c r="Q15">
-        <v>1051.8</v>
+        <v>1151</v>
       </c>
       <c r="R15">
-        <v>2621.9</v>
+        <v>3064</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>19.5</v>
+        <v>3.8</v>
       </c>
       <c r="U15">
-        <v>364.5</v>
+        <v>336.5</v>
       </c>
       <c r="V15">
-        <v>750.5</v>
+        <v>685.5</v>
       </c>
       <c r="W15">
-        <v>12485</v>
+        <v>14514</v>
       </c>
       <c r="X15">
         <v>22</v>
       </c>
       <c r="Y15">
-        <v>1361.1</v>
+        <v>1582.6</v>
       </c>
       <c r="Z15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA15">
-        <v>77.3</v>
+        <v>72.7</v>
       </c>
       <c r="AB15">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC15">
-        <v>11059</v>
+        <v>15889</v>
       </c>
       <c r="AD15">
-        <v>502.7</v>
+        <v>722.2</v>
       </c>
       <c r="AE15">
-        <v>768.9</v>
+        <v>840</v>
       </c>
       <c r="AF15">
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>491.5</v>
       </c>
       <c r="AI15">
-        <v>975.8</v>
+        <v>1161.8</v>
       </c>
       <c r="AJ15">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK15">
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>1105.9</v>
+        <v>934.6</v>
       </c>
       <c r="AM15">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AN15">
-        <v>45.5</v>
+        <v>77.3</v>
       </c>
       <c r="AO15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2148,13 +2148,13 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>10531</v>
+        <v>12842</v>
       </c>
       <c r="D16">
-        <v>1170.1</v>
+        <v>1426.9</v>
       </c>
       <c r="E16">
-        <v>1490.1</v>
+        <v>1717.1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>783</v>
+        <v>1171</v>
       </c>
       <c r="I16">
-        <v>2128</v>
+        <v>2533</v>
       </c>
       <c r="J16">
-        <v>4331</v>
+        <v>4827</v>
       </c>
       <c r="K16">
         <v>9</v>
       </c>
       <c r="L16">
-        <v>2106.2</v>
+        <v>2568.4</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -2187,13 +2187,13 @@
         <v>-0.3</v>
       </c>
       <c r="P16">
-        <v>3945</v>
+        <v>4421</v>
       </c>
       <c r="Q16">
-        <v>438.3</v>
+        <v>491.2</v>
       </c>
       <c r="R16">
-        <v>557.5</v>
+        <v>611.4</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="V16">
-        <v>965</v>
+        <v>1130</v>
       </c>
       <c r="W16">
-        <v>1386</v>
+        <v>1522</v>
       </c>
       <c r="X16">
         <v>9</v>
       </c>
       <c r="Y16">
-        <v>789</v>
+        <v>884.2</v>
       </c>
       <c r="Z16">
         <v>5</v>
@@ -2226,13 +2226,13 @@
         <v>-0.4</v>
       </c>
       <c r="AC16">
-        <v>1379</v>
+        <v>3318</v>
       </c>
       <c r="AD16">
-        <v>153.2</v>
+        <v>368.7</v>
       </c>
       <c r="AE16">
-        <v>312.9</v>
+        <v>454.9</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2241,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="AJ16">
-        <v>837</v>
+        <v>1197</v>
       </c>
       <c r="AK16">
         <v>9</v>
       </c>
       <c r="AL16">
-        <v>689.5</v>
+        <v>663.6</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN16">
-        <v>22.2</v>
+        <v>55.6</v>
       </c>
       <c r="AO16">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2271,13 +2271,13 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>88589</v>
+        <v>103794</v>
       </c>
       <c r="D17">
-        <v>922.8</v>
+        <v>1081.2</v>
       </c>
       <c r="E17">
-        <v>1705.8</v>
+        <v>1970.7</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>417.5</v>
+        <v>555.5</v>
       </c>
       <c r="I17">
-        <v>1152.8</v>
+        <v>1406.8</v>
       </c>
       <c r="J17">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="K17">
         <v>96</v>
       </c>
       <c r="L17">
-        <v>1362.9</v>
+        <v>1596.8</v>
       </c>
       <c r="M17">
         <v>65</v>
@@ -2310,13 +2310,13 @@
         <v>0.6</v>
       </c>
       <c r="P17">
-        <v>27269</v>
+        <v>31522</v>
       </c>
       <c r="Q17">
-        <v>284.1</v>
+        <v>328.4</v>
       </c>
       <c r="R17">
-        <v>748.7</v>
+        <v>866.3</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2325,19 +2325,19 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>69</v>
+        <v>73.5</v>
       </c>
       <c r="V17">
-        <v>303.2</v>
+        <v>344</v>
       </c>
       <c r="W17">
-        <v>6662</v>
+        <v>7710</v>
       </c>
       <c r="X17">
         <v>96</v>
       </c>
       <c r="Y17">
-        <v>413.2</v>
+        <v>477.6</v>
       </c>
       <c r="Z17">
         <v>66</v>
@@ -2349,43 +2349,43 @@
         <v>0.6</v>
       </c>
       <c r="AC17">
-        <v>36738</v>
+        <v>42453</v>
       </c>
       <c r="AD17">
-        <v>382.7</v>
+        <v>442.2</v>
       </c>
       <c r="AE17">
-        <v>1404</v>
+        <v>577.2</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="AI17">
-        <v>355.5</v>
+        <v>516.5</v>
       </c>
       <c r="AJ17">
-        <v>13336</v>
+        <v>2449</v>
       </c>
       <c r="AK17">
         <v>96</v>
       </c>
       <c r="AL17">
-        <v>1020.5</v>
+        <v>581.5</v>
       </c>
       <c r="AM17">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="AN17">
-        <v>37.5</v>
+        <v>76</v>
       </c>
       <c r="AO17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2394,13 +2394,13 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>21078</v>
+        <v>23811</v>
       </c>
       <c r="D18">
-        <v>585.5</v>
+        <v>661.4</v>
       </c>
       <c r="E18">
-        <v>2165.9</v>
+        <v>2430</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2409,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18">
-        <v>396</v>
+        <v>443.5</v>
       </c>
       <c r="J18">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K18">
         <v>36</v>
       </c>
       <c r="L18">
-        <v>1003.7</v>
+        <v>1133.9</v>
       </c>
       <c r="M18">
         <v>21</v>
@@ -2433,13 +2433,13 @@
         <v>-0.1</v>
       </c>
       <c r="P18">
-        <v>48415</v>
+        <v>50292</v>
       </c>
       <c r="Q18">
-        <v>1344.9</v>
+        <v>1397</v>
       </c>
       <c r="R18">
-        <v>7825.7</v>
+        <v>8112.5</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>8</v>
       </c>
       <c r="V18">
-        <v>63.2</v>
+        <v>70.5</v>
       </c>
       <c r="W18">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X18">
         <v>36</v>
       </c>
       <c r="Y18">
-        <v>2305.5</v>
+        <v>2394.9</v>
       </c>
       <c r="Z18">
         <v>21</v>
@@ -2472,13 +2472,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC18">
-        <v>5646</v>
+        <v>14582</v>
       </c>
       <c r="AD18">
-        <v>156.8</v>
+        <v>405.1</v>
       </c>
       <c r="AE18">
-        <v>363.5</v>
+        <v>475.9</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2487,28 +2487,28 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>279.5</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>717.8</v>
       </c>
       <c r="AJ18">
-        <v>1602</v>
+        <v>1770</v>
       </c>
       <c r="AK18">
         <v>36</v>
       </c>
       <c r="AL18">
-        <v>705.8</v>
+        <v>607.6</v>
       </c>
       <c r="AM18">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AN18">
-        <v>22.2</v>
+        <v>66.7</v>
       </c>
       <c r="AO18">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2517,13 +2517,13 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>12192</v>
+        <v>13774</v>
       </c>
       <c r="D19">
-        <v>1219.2</v>
+        <v>1377.4</v>
       </c>
       <c r="E19">
-        <v>1859.2</v>
+        <v>2048</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>68.5</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>1971.8</v>
+        <v>2226.8</v>
       </c>
       <c r="J19">
-        <v>5548</v>
+        <v>5970</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>2032</v>
+        <v>2295.7</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2553,16 +2553,16 @@
         <v>60</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P19">
-        <v>6629</v>
+        <v>8094</v>
       </c>
       <c r="Q19">
-        <v>662.9</v>
+        <v>809.4</v>
       </c>
       <c r="R19">
-        <v>1724.8</v>
+        <v>2112.1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="V19">
-        <v>308.2</v>
+        <v>351.2</v>
       </c>
       <c r="W19">
-        <v>5547</v>
+        <v>6792</v>
       </c>
       <c r="X19">
         <v>10</v>
       </c>
       <c r="Y19">
-        <v>1104.8</v>
+        <v>1349</v>
       </c>
       <c r="Z19">
         <v>6</v>
@@ -2595,13 +2595,13 @@
         <v>-0</v>
       </c>
       <c r="AC19">
-        <v>2155</v>
+        <v>2825</v>
       </c>
       <c r="AD19">
-        <v>215.5</v>
+        <v>282.5</v>
       </c>
       <c r="AE19">
-        <v>364.9</v>
+        <v>420</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2610,28 +2610,28 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AI19">
-        <v>411.8</v>
+        <v>498.8</v>
       </c>
       <c r="AJ19">
-        <v>992</v>
+        <v>1231</v>
       </c>
       <c r="AK19">
         <v>10</v>
       </c>
       <c r="AL19">
-        <v>718.3</v>
+        <v>470.8</v>
       </c>
       <c r="AM19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AO19">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2640,91 +2640,91 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>41007</v>
+        <v>48189</v>
       </c>
       <c r="D20">
-        <v>976.4</v>
+        <v>1147.4</v>
       </c>
       <c r="E20">
-        <v>1470.5</v>
+        <v>1781</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>284</v>
+        <v>371.5</v>
       </c>
       <c r="I20">
-        <v>1313.2</v>
+        <v>1468.2</v>
       </c>
       <c r="J20">
-        <v>6213</v>
+        <v>7473</v>
       </c>
       <c r="K20">
         <v>42</v>
       </c>
       <c r="L20">
-        <v>1281.5</v>
+        <v>1554.5</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>76.2</v>
+        <v>73.8</v>
       </c>
       <c r="O20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>17648</v>
+        <v>20049</v>
       </c>
       <c r="Q20">
-        <v>420.2</v>
+        <v>477.4</v>
       </c>
       <c r="R20">
-        <v>1113.1</v>
+        <v>1271.9</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="U20">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="V20">
-        <v>303</v>
+        <v>345.2</v>
       </c>
       <c r="W20">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="X20">
         <v>42</v>
       </c>
       <c r="Y20">
-        <v>551.5</v>
+        <v>646.7</v>
       </c>
       <c r="Z20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA20">
-        <v>76.2</v>
+        <v>73.8</v>
       </c>
       <c r="AB20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>15261</v>
+        <v>24870</v>
       </c>
       <c r="AD20">
-        <v>363.4</v>
+        <v>592.1</v>
       </c>
       <c r="AE20">
-        <v>500.5</v>
+        <v>695.4</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2733,28 +2733,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>288.5</v>
       </c>
       <c r="AI20">
-        <v>585.8</v>
+        <v>1146</v>
       </c>
       <c r="AJ20">
-        <v>1627</v>
+        <v>2592</v>
       </c>
       <c r="AK20">
         <v>42</v>
       </c>
       <c r="AL20">
-        <v>763</v>
+        <v>829</v>
       </c>
       <c r="AM20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN20">
-        <v>47.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO20">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2763,13 +2763,13 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>1276</v>
+        <v>1450</v>
       </c>
       <c r="D21">
-        <v>212.7</v>
+        <v>241.7</v>
       </c>
       <c r="E21">
-        <v>509.3</v>
+        <v>578.4</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21">
-        <v>1252</v>
+        <v>1422</v>
       </c>
       <c r="K21">
         <v>6</v>
       </c>
       <c r="L21">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -2799,16 +2799,16 @@
         <v>33.3</v>
       </c>
       <c r="O21">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="P21">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="Q21">
-        <v>80</v>
+        <v>88.3</v>
       </c>
       <c r="R21">
-        <v>193</v>
+        <v>213.4</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>4</v>
       </c>
       <c r="W21">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="X21">
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>160</v>
+        <v>176.7</v>
       </c>
       <c r="Z21">
         <v>3</v>
@@ -2841,43 +2841,43 @@
         <v>-0.8</v>
       </c>
       <c r="AC21">
-        <v>12006</v>
+        <v>3845</v>
       </c>
       <c r="AD21">
-        <v>2001</v>
+        <v>640.8</v>
       </c>
       <c r="AE21">
-        <v>2463.7</v>
+        <v>1242.9</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>1189.5</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>2900.2</v>
+        <v>555</v>
       </c>
       <c r="AJ21">
-        <v>6335</v>
+        <v>3105</v>
       </c>
       <c r="AK21">
         <v>6</v>
       </c>
       <c r="AL21">
-        <v>3001.5</v>
+        <v>1922.5</v>
       </c>
       <c r="AM21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="AO21">
-        <v>2.2</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2886,34 +2886,34 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>51552</v>
+        <v>60554</v>
       </c>
       <c r="D22">
-        <v>726.1</v>
+        <v>852.9</v>
       </c>
       <c r="E22">
-        <v>938.5</v>
+        <v>1098.5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="H22">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="I22">
-        <v>1188.5</v>
+        <v>1418</v>
       </c>
       <c r="J22">
-        <v>4224</v>
+        <v>5195</v>
       </c>
       <c r="K22">
         <v>71</v>
       </c>
       <c r="L22">
-        <v>954.7</v>
+        <v>1121.4</v>
       </c>
       <c r="M22">
         <v>54</v>
@@ -2922,37 +2922,37 @@
         <v>76.09999999999999</v>
       </c>
       <c r="O22">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P22">
-        <v>25726</v>
+        <v>29729</v>
       </c>
       <c r="Q22">
-        <v>362.3</v>
+        <v>418.7</v>
       </c>
       <c r="R22">
-        <v>745.3</v>
+        <v>850.4</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U22">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="V22">
-        <v>391.5</v>
+        <v>460.5</v>
       </c>
       <c r="W22">
-        <v>4715</v>
+        <v>5342</v>
       </c>
       <c r="X22">
         <v>71</v>
       </c>
       <c r="Y22">
-        <v>443.6</v>
+        <v>512.6</v>
       </c>
       <c r="Z22">
         <v>58</v>
@@ -2961,46 +2961,46 @@
         <v>81.7</v>
       </c>
       <c r="AB22">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC22">
-        <v>30609</v>
+        <v>50246</v>
       </c>
       <c r="AD22">
-        <v>431.1</v>
+        <v>707.7</v>
       </c>
       <c r="AE22">
-        <v>564.6</v>
+        <v>709.9</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="AH22">
-        <v>166</v>
+        <v>455</v>
       </c>
       <c r="AI22">
-        <v>656.5</v>
+        <v>1082</v>
       </c>
       <c r="AJ22">
-        <v>2322</v>
+        <v>2982</v>
       </c>
       <c r="AK22">
         <v>71</v>
       </c>
       <c r="AL22">
-        <v>805.5</v>
+        <v>897.2</v>
       </c>
       <c r="AM22">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AN22">
-        <v>53.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="AO22">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3009,13 +3009,13 @@
         <v>39</v>
       </c>
       <c r="C23">
-        <v>3183</v>
+        <v>3864</v>
       </c>
       <c r="D23">
-        <v>289.4</v>
+        <v>351.3</v>
       </c>
       <c r="E23">
-        <v>399.2</v>
+        <v>505.9</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3024,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I23">
-        <v>461</v>
+        <v>520.5</v>
       </c>
       <c r="J23">
-        <v>1148</v>
+        <v>1538</v>
       </c>
       <c r="K23">
         <v>11</v>
       </c>
       <c r="L23">
-        <v>530.5</v>
+        <v>644</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -3045,16 +3045,16 @@
         <v>54.5</v>
       </c>
       <c r="O23">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="P23">
-        <v>677</v>
+        <v>811</v>
       </c>
       <c r="Q23">
-        <v>61.5</v>
+        <v>73.7</v>
       </c>
       <c r="R23">
-        <v>111.3</v>
+        <v>138.7</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3063,67 +3063,67 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V23">
-        <v>55.5</v>
+        <v>62.5</v>
       </c>
       <c r="W23">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="X23">
         <v>11</v>
       </c>
       <c r="Y23">
-        <v>112.8</v>
+        <v>115.9</v>
       </c>
       <c r="Z23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA23">
-        <v>54.5</v>
+        <v>63.6</v>
       </c>
       <c r="AB23">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC23">
-        <v>455</v>
+        <v>2866</v>
       </c>
       <c r="AD23">
-        <v>41.4</v>
+        <v>260.5</v>
       </c>
       <c r="AE23">
-        <v>132</v>
+        <v>249.1</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>414.5</v>
       </c>
       <c r="AJ23">
-        <v>439</v>
+        <v>677</v>
       </c>
       <c r="AK23">
         <v>11</v>
       </c>
       <c r="AL23">
-        <v>227.5</v>
+        <v>318.4</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AN23">
-        <v>18.2</v>
+        <v>81.8</v>
       </c>
       <c r="AO23">
-        <v>-1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3132,13 +3132,13 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>153572</v>
+        <v>184927</v>
       </c>
       <c r="D24">
-        <v>1030.7</v>
+        <v>1241.1</v>
       </c>
       <c r="E24">
-        <v>2678.6</v>
+        <v>3303.1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3147,37 +3147,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="I24">
-        <v>920</v>
+        <v>994</v>
       </c>
       <c r="J24">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K24">
         <v>149</v>
       </c>
       <c r="L24">
-        <v>1408.9</v>
+        <v>1712.3</v>
       </c>
       <c r="M24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24">
-        <v>73.2</v>
+        <v>72.5</v>
       </c>
       <c r="O24">
         <v>0.9</v>
       </c>
       <c r="P24">
-        <v>66634</v>
+        <v>79162</v>
       </c>
       <c r="Q24">
-        <v>447.2</v>
+        <v>531.3</v>
       </c>
       <c r="R24">
-        <v>1286</v>
+        <v>1550.4</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="V24">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="W24">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X24">
         <v>149</v>
       </c>
       <c r="Y24">
-        <v>605.8</v>
+        <v>719.7</v>
       </c>
       <c r="Z24">
         <v>110</v>
@@ -3210,43 +3210,43 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>53190</v>
+        <v>79375</v>
       </c>
       <c r="AD24">
-        <v>357</v>
+        <v>532.7</v>
       </c>
       <c r="AE24">
-        <v>738.3</v>
+        <v>708.5</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="AI24">
-        <v>389</v>
+        <v>748</v>
       </c>
       <c r="AJ24">
-        <v>6327</v>
+        <v>3346</v>
       </c>
       <c r="AK24">
         <v>149</v>
       </c>
       <c r="AL24">
-        <v>818.3</v>
+        <v>708.7</v>
       </c>
       <c r="AM24">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="AN24">
-        <v>43.6</v>
+        <v>75.2</v>
       </c>
       <c r="AO24">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3257,13 +3257,13 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>20144</v>
+        <v>24111</v>
       </c>
       <c r="D25">
-        <v>530.1</v>
+        <v>634.5</v>
       </c>
       <c r="E25">
-        <v>1333.9</v>
+        <v>1504</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>266</v>
+        <v>388.5</v>
       </c>
       <c r="J25">
-        <v>7295</v>
+        <v>8046</v>
       </c>
       <c r="K25">
         <v>38</v>
       </c>
       <c r="L25">
-        <v>1184.9</v>
+        <v>1418.3</v>
       </c>
       <c r="M25">
         <v>17</v>
@@ -3293,16 +3293,16 @@
         <v>44.7</v>
       </c>
       <c r="O25">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="P25">
-        <v>14651</v>
+        <v>17580</v>
       </c>
       <c r="Q25">
-        <v>385.6</v>
+        <v>462.6</v>
       </c>
       <c r="R25">
-        <v>1134.1</v>
+        <v>1308.9</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>87.5</v>
+        <v>103.5</v>
       </c>
       <c r="W25">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X25">
         <v>38</v>
       </c>
       <c r="Y25">
-        <v>861.8</v>
+        <v>1034.1</v>
       </c>
       <c r="Z25">
         <v>17</v>
@@ -3332,16 +3332,16 @@
         <v>44.7</v>
       </c>
       <c r="AB25">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AC25">
-        <v>9397</v>
+        <v>9038</v>
       </c>
       <c r="AD25">
-        <v>247.3</v>
+        <v>237.8</v>
       </c>
       <c r="AE25">
-        <v>544</v>
+        <v>388.8</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AI25">
-        <v>29.2</v>
+        <v>325.5</v>
       </c>
       <c r="AJ25">
-        <v>2362</v>
+        <v>1506</v>
       </c>
       <c r="AK25">
         <v>38</v>
       </c>
       <c r="AL25">
-        <v>939.7</v>
+        <v>475.7</v>
       </c>
       <c r="AM25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AN25">
-        <v>26.3</v>
+        <v>50</v>
       </c>
       <c r="AO25">
         <v>-0.6</v>
@@ -3380,13 +3380,13 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>105192</v>
+        <v>125442</v>
       </c>
       <c r="D26">
-        <v>1119.1</v>
+        <v>1334.5</v>
       </c>
       <c r="E26">
-        <v>2272.4</v>
+        <v>2758</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3395,37 +3395,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>234.5</v>
+        <v>245</v>
       </c>
       <c r="I26">
-        <v>1321.2</v>
+        <v>1613.2</v>
       </c>
       <c r="J26">
-        <v>14118</v>
+        <v>17617</v>
       </c>
       <c r="K26">
         <v>94</v>
       </c>
       <c r="L26">
-        <v>1753.2</v>
+        <v>2056.4</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N26">
-        <v>63.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="O26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P26">
-        <v>44658</v>
+        <v>53493</v>
       </c>
       <c r="Q26">
-        <v>475.1</v>
+        <v>569.1</v>
       </c>
       <c r="R26">
-        <v>2224.8</v>
+        <v>2732.5</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3434,37 +3434,37 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>26</v>
+        <v>29.5</v>
       </c>
       <c r="V26">
-        <v>226.8</v>
+        <v>246.5</v>
       </c>
       <c r="W26">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X26">
         <v>94</v>
       </c>
       <c r="Y26">
-        <v>756.9</v>
+        <v>891.6</v>
       </c>
       <c r="Z26">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA26">
-        <v>62.8</v>
+        <v>63.8</v>
       </c>
       <c r="AB26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC26">
-        <v>40556</v>
+        <v>49751</v>
       </c>
       <c r="AD26">
-        <v>431.4</v>
+        <v>529.3</v>
       </c>
       <c r="AE26">
-        <v>703.3</v>
+        <v>648</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3473,28 +3473,28 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AI26">
-        <v>632</v>
+        <v>923.5</v>
       </c>
       <c r="AJ26">
-        <v>4362</v>
+        <v>3450</v>
       </c>
       <c r="AK26">
         <v>94</v>
       </c>
       <c r="AL26">
-        <v>921.7</v>
+        <v>789.7</v>
       </c>
       <c r="AM26">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AN26">
-        <v>46.8</v>
+        <v>67</v>
       </c>
       <c r="AO26">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3503,13 +3503,13 @@
         <v>22</v>
       </c>
       <c r="C27">
-        <v>42145</v>
+        <v>48251</v>
       </c>
       <c r="D27">
-        <v>690.9</v>
+        <v>791</v>
       </c>
       <c r="E27">
-        <v>1221.8</v>
+        <v>1492.5</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3518,37 +3518,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="J27">
-        <v>5353</v>
+        <v>6975</v>
       </c>
       <c r="K27">
         <v>61</v>
       </c>
       <c r="L27">
-        <v>1317</v>
+        <v>1556.5</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>52.5</v>
+        <v>50.8</v>
       </c>
       <c r="O27">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="P27">
-        <v>23142</v>
+        <v>28966</v>
       </c>
       <c r="Q27">
-        <v>379.4</v>
+        <v>474.9</v>
       </c>
       <c r="R27">
-        <v>1383.7</v>
+        <v>1921.7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3557,37 +3557,37 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="W27">
-        <v>10371</v>
+        <v>14550</v>
       </c>
       <c r="X27">
         <v>61</v>
       </c>
       <c r="Y27">
-        <v>746.5</v>
+        <v>965.5</v>
       </c>
       <c r="Z27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA27">
-        <v>50.8</v>
+        <v>49.2</v>
       </c>
       <c r="AB27">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AC27">
-        <v>20746</v>
+        <v>35503</v>
       </c>
       <c r="AD27">
-        <v>340.1</v>
+        <v>582</v>
       </c>
       <c r="AE27">
-        <v>769.1</v>
+        <v>943.8</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3596,28 +3596,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AI27">
-        <v>225</v>
+        <v>915</v>
       </c>
       <c r="AJ27">
-        <v>3550</v>
+        <v>4356</v>
       </c>
       <c r="AK27">
         <v>61</v>
       </c>
       <c r="AL27">
-        <v>1152.6</v>
+        <v>910.3</v>
       </c>
       <c r="AM27">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AN27">
-        <v>29.5</v>
+        <v>63.9</v>
       </c>
       <c r="AO27">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3626,13 +3626,13 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>99700</v>
+        <v>115537</v>
       </c>
       <c r="D28">
-        <v>323.7</v>
+        <v>375.1</v>
       </c>
       <c r="E28">
-        <v>659.6</v>
+        <v>760.2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3641,37 +3641,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I28">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="J28">
-        <v>5055</v>
+        <v>5828</v>
       </c>
       <c r="K28">
         <v>308</v>
       </c>
       <c r="L28">
-        <v>536</v>
+        <v>617.8</v>
       </c>
       <c r="M28">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28">
-        <v>60.4</v>
+        <v>60.7</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P28">
-        <v>31838</v>
+        <v>36815</v>
       </c>
       <c r="Q28">
-        <v>103.4</v>
+        <v>119.5</v>
       </c>
       <c r="R28">
-        <v>260.5</v>
+        <v>302.6</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3680,37 +3680,37 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V28">
-        <v>70.2</v>
+        <v>80.2</v>
       </c>
       <c r="W28">
-        <v>1895</v>
+        <v>2194</v>
       </c>
       <c r="X28">
         <v>308</v>
       </c>
       <c r="Y28">
-        <v>165.8</v>
+        <v>188.8</v>
       </c>
       <c r="Z28">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AA28">
-        <v>62.3</v>
+        <v>63.3</v>
       </c>
       <c r="AB28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC28">
-        <v>120296</v>
+        <v>114269</v>
       </c>
       <c r="AD28">
-        <v>390.6</v>
+        <v>371</v>
       </c>
       <c r="AE28">
-        <v>2285.8</v>
+        <v>570.5</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3719,28 +3719,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>180.5</v>
       </c>
       <c r="AI28">
-        <v>330.5</v>
+        <v>580</v>
       </c>
       <c r="AJ28">
-        <v>36948</v>
+        <v>6193</v>
       </c>
       <c r="AK28">
         <v>308</v>
       </c>
       <c r="AL28">
-        <v>1113.9</v>
+        <v>586</v>
       </c>
       <c r="AM28">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="AN28">
-        <v>35.1</v>
+        <v>63.3</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3749,13 +3749,13 @@
         <v>24</v>
       </c>
       <c r="C29">
-        <v>8198</v>
+        <v>9740</v>
       </c>
       <c r="D29">
-        <v>1366.3</v>
+        <v>1623.3</v>
       </c>
       <c r="E29">
-        <v>1598.5</v>
+        <v>1894.2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3764,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>966</v>
+        <v>1180</v>
       </c>
       <c r="I29">
-        <v>2417.2</v>
+        <v>2840.8</v>
       </c>
       <c r="J29">
-        <v>3687</v>
+        <v>4379</v>
       </c>
       <c r="K29">
         <v>6</v>
       </c>
       <c r="L29">
-        <v>2732.7</v>
+        <v>3246.7</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -3788,13 +3788,13 @@
         <v>-0.7</v>
       </c>
       <c r="P29">
-        <v>4273</v>
+        <v>5041</v>
       </c>
       <c r="Q29">
-        <v>712.2</v>
+        <v>840.2</v>
       </c>
       <c r="R29">
-        <v>1005.1</v>
+        <v>1165.4</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3803,19 +3803,19 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="V29">
-        <v>1333.8</v>
+        <v>1639</v>
       </c>
       <c r="W29">
-        <v>2280</v>
+        <v>2581</v>
       </c>
       <c r="X29">
         <v>6</v>
       </c>
       <c r="Y29">
-        <v>1424.3</v>
+        <v>1680.3</v>
       </c>
       <c r="Z29">
         <v>3</v>
@@ -3827,13 +3827,13 @@
         <v>-0.8</v>
       </c>
       <c r="AC29">
-        <v>2692</v>
+        <v>3466</v>
       </c>
       <c r="AD29">
-        <v>448.7</v>
+        <v>577.7</v>
       </c>
       <c r="AE29">
-        <v>577.6</v>
+        <v>708.2</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3842,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>304.5</v>
+        <v>389</v>
       </c>
       <c r="AI29">
-        <v>626.2</v>
+        <v>916</v>
       </c>
       <c r="AJ29">
-        <v>1451</v>
+        <v>1726</v>
       </c>
       <c r="AK29">
         <v>6</v>
       </c>
       <c r="AL29">
-        <v>897.3</v>
+        <v>1155.3</v>
       </c>
       <c r="AM29">
         <v>3</v>
@@ -3863,7 +3863,7 @@
         <v>50</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3872,13 +3872,13 @@
         <v>25</v>
       </c>
       <c r="C30">
-        <v>3313</v>
+        <v>3871</v>
       </c>
       <c r="D30">
-        <v>236.6</v>
+        <v>276.5</v>
       </c>
       <c r="E30">
-        <v>482.8</v>
+        <v>559.7</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>91.2</v>
       </c>
       <c r="J30">
-        <v>1366</v>
+        <v>1580</v>
       </c>
       <c r="K30">
         <v>14</v>
       </c>
       <c r="L30">
-        <v>552.2</v>
+        <v>645.2</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -3911,13 +3911,13 @@
         <v>-1.2</v>
       </c>
       <c r="P30">
-        <v>1027</v>
+        <v>1242</v>
       </c>
       <c r="Q30">
-        <v>73.40000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="R30">
-        <v>154.4</v>
+        <v>184.3</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3926,19 +3926,19 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V30">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="W30">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="X30">
         <v>14</v>
       </c>
       <c r="Y30">
-        <v>128.4</v>
+        <v>155.2</v>
       </c>
       <c r="Z30">
         <v>8</v>
@@ -3947,16 +3947,16 @@
         <v>57.1</v>
       </c>
       <c r="AB30">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AC30">
-        <v>2988</v>
+        <v>4772</v>
       </c>
       <c r="AD30">
-        <v>213.4</v>
+        <v>340.9</v>
       </c>
       <c r="AE30">
-        <v>449.4</v>
+        <v>542.2</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3965,28 +3965,28 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AI30">
-        <v>140.2</v>
+        <v>378.5</v>
       </c>
       <c r="AJ30">
-        <v>1574</v>
+        <v>1785</v>
       </c>
       <c r="AK30">
         <v>14</v>
       </c>
       <c r="AL30">
-        <v>498</v>
+        <v>596.5</v>
       </c>
       <c r="AM30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN30">
-        <v>42.9</v>
+        <v>57.1</v>
       </c>
       <c r="AO30">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3995,13 +3995,13 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <v>22054</v>
+        <v>25486</v>
       </c>
       <c r="D31">
-        <v>265.7</v>
+        <v>307.1</v>
       </c>
       <c r="E31">
-        <v>542.5</v>
+        <v>634.7</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4013,16 +4013,16 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>191.5</v>
+        <v>254.5</v>
       </c>
       <c r="J31">
-        <v>3052</v>
+        <v>3760</v>
       </c>
       <c r="K31">
         <v>83</v>
       </c>
       <c r="L31">
-        <v>580.4</v>
+        <v>670.7</v>
       </c>
       <c r="M31">
         <v>38</v>
@@ -4034,13 +4034,13 @@
         <v>-1</v>
       </c>
       <c r="P31">
-        <v>5130</v>
+        <v>5644</v>
       </c>
       <c r="Q31">
-        <v>61.8</v>
+        <v>68</v>
       </c>
       <c r="R31">
-        <v>180.7</v>
+        <v>191.7</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4052,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W31">
-        <v>1186</v>
+        <v>1277</v>
       </c>
       <c r="X31">
         <v>83</v>
       </c>
       <c r="Y31">
-        <v>128.2</v>
+        <v>141.1</v>
       </c>
       <c r="Z31">
         <v>40</v>
@@ -4073,13 +4073,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC31">
-        <v>29607</v>
+        <v>33711</v>
       </c>
       <c r="AD31">
-        <v>356.7</v>
+        <v>406.2</v>
       </c>
       <c r="AE31">
-        <v>1026.2</v>
+        <v>805.7</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4088,28 +4088,28 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AI31">
-        <v>192</v>
+        <v>398</v>
       </c>
       <c r="AJ31">
-        <v>7664</v>
+        <v>5226</v>
       </c>
       <c r="AK31">
         <v>83</v>
       </c>
       <c r="AL31">
-        <v>1184.3</v>
+        <v>648.3</v>
       </c>
       <c r="AM31">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AN31">
-        <v>30.1</v>
+        <v>62.7</v>
       </c>
       <c r="AO31">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4118,13 +4118,13 @@
         <v>27</v>
       </c>
       <c r="C32">
-        <v>37885</v>
+        <v>44925</v>
       </c>
       <c r="D32">
-        <v>533.6</v>
+        <v>632.7</v>
       </c>
       <c r="E32">
-        <v>1302.3</v>
+        <v>1759.7</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4136,34 +4136,34 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>312.5</v>
+        <v>279.5</v>
       </c>
       <c r="J32">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K32">
         <v>71</v>
       </c>
       <c r="L32">
-        <v>1222.1</v>
+        <v>1497.5</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>43.7</v>
+        <v>42.3</v>
       </c>
       <c r="O32">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="P32">
-        <v>15023</v>
+        <v>16526</v>
       </c>
       <c r="Q32">
-        <v>211.6</v>
+        <v>232.8</v>
       </c>
       <c r="R32">
-        <v>532.8</v>
+        <v>634</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4175,34 +4175,34 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>113.5</v>
+        <v>103.5</v>
       </c>
       <c r="W32">
-        <v>2736</v>
+        <v>3385</v>
       </c>
       <c r="X32">
         <v>71</v>
       </c>
       <c r="Y32">
-        <v>484.6</v>
+        <v>550.9</v>
       </c>
       <c r="Z32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA32">
-        <v>43.7</v>
+        <v>42.3</v>
       </c>
       <c r="AB32">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AC32">
-        <v>36390</v>
+        <v>22292</v>
       </c>
       <c r="AD32">
-        <v>512.5</v>
+        <v>314</v>
       </c>
       <c r="AE32">
-        <v>1562.7</v>
+        <v>624.5</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4214,25 +4214,25 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>47.5</v>
+        <v>304.5</v>
       </c>
       <c r="AJ32">
-        <v>8880</v>
+        <v>3251</v>
       </c>
       <c r="AK32">
         <v>71</v>
       </c>
       <c r="AL32">
-        <v>2021.7</v>
+        <v>719.1</v>
       </c>
       <c r="AM32">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AN32">
-        <v>25.4</v>
+        <v>43.7</v>
       </c>
       <c r="AO32">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4241,13 +4241,13 @@
         <v>28</v>
       </c>
       <c r="C33">
-        <v>97044</v>
+        <v>114834</v>
       </c>
       <c r="D33">
-        <v>330.1</v>
+        <v>390.6</v>
       </c>
       <c r="E33">
-        <v>891.2</v>
+        <v>1057</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>168.2</v>
+        <v>179.2</v>
       </c>
       <c r="J33">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K33">
         <v>294</v>
       </c>
       <c r="L33">
-        <v>808.7</v>
+        <v>957</v>
       </c>
       <c r="M33">
         <v>120</v>
@@ -4280,13 +4280,13 @@
         <v>-1.3</v>
       </c>
       <c r="P33">
-        <v>21556</v>
+        <v>25544</v>
       </c>
       <c r="Q33">
-        <v>73.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="R33">
-        <v>297.3</v>
+        <v>357.3</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4298,34 +4298,34 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="W33">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X33">
         <v>294</v>
       </c>
       <c r="Y33">
-        <v>178.1</v>
+        <v>207.7</v>
       </c>
       <c r="Z33">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA33">
-        <v>41.2</v>
+        <v>41.8</v>
       </c>
       <c r="AB33">
         <v>-1.4</v>
       </c>
       <c r="AC33">
-        <v>82279</v>
+        <v>83625</v>
       </c>
       <c r="AD33">
-        <v>279.9</v>
+        <v>284.4</v>
       </c>
       <c r="AE33">
-        <v>1465.3</v>
+        <v>551.2</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4334,28 +4334,28 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>261.5</v>
       </c>
       <c r="AJ33">
-        <v>21892</v>
+        <v>3458</v>
       </c>
       <c r="AK33">
         <v>294</v>
       </c>
       <c r="AL33">
-        <v>1348.8</v>
+        <v>532.6</v>
       </c>
       <c r="AM33">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="AN33">
-        <v>20.7</v>
+        <v>53.4</v>
       </c>
       <c r="AO33">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4364,13 +4364,13 @@
         <v>29</v>
       </c>
       <c r="C34">
-        <v>5118</v>
+        <v>7249</v>
       </c>
       <c r="D34">
-        <v>365.6</v>
+        <v>517.8</v>
       </c>
       <c r="E34">
-        <v>844.2</v>
+        <v>1133.5</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4379,19 +4379,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I34">
-        <v>290.8</v>
+        <v>292</v>
       </c>
       <c r="J34">
-        <v>3116</v>
+        <v>4061</v>
       </c>
       <c r="K34">
         <v>14</v>
       </c>
       <c r="L34">
-        <v>731.1</v>
+        <v>1035.6</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -4403,13 +4403,13 @@
         <v>-0.7</v>
       </c>
       <c r="P34">
-        <v>1019</v>
+        <v>1778</v>
       </c>
       <c r="Q34">
-        <v>72.8</v>
+        <v>127</v>
       </c>
       <c r="R34">
-        <v>171.1</v>
+        <v>304.2</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4418,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34">
         <v>10.2</v>
       </c>
       <c r="W34">
-        <v>495</v>
+        <v>1010</v>
       </c>
       <c r="X34">
         <v>14</v>
       </c>
       <c r="Y34">
-        <v>145.6</v>
+        <v>254</v>
       </c>
       <c r="Z34">
         <v>7</v>
@@ -4442,13 +4442,13 @@
         <v>-0.8</v>
       </c>
       <c r="AC34">
-        <v>8100</v>
+        <v>1268</v>
       </c>
       <c r="AD34">
-        <v>578.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AE34">
-        <v>1420.9</v>
+        <v>287.8</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4460,25 +4460,25 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>526</v>
+        <v>21.8</v>
       </c>
       <c r="AJ34">
-        <v>5316</v>
+        <v>1084</v>
       </c>
       <c r="AK34">
         <v>14</v>
       </c>
       <c r="AL34">
-        <v>1620</v>
+        <v>317</v>
       </c>
       <c r="AM34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN34">
-        <v>35.7</v>
+        <v>28.6</v>
       </c>
       <c r="AO34">
-        <v>0.1</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4487,13 +4487,13 @@
         <v>30</v>
       </c>
       <c r="C35">
-        <v>51195</v>
+        <v>60005</v>
       </c>
       <c r="D35">
-        <v>1551.4</v>
+        <v>1818.3</v>
       </c>
       <c r="E35">
-        <v>3717.2</v>
+        <v>4554.7</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4502,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I35">
-        <v>1633</v>
+        <v>1774</v>
       </c>
       <c r="J35">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K35">
         <v>33</v>
       </c>
       <c r="L35">
-        <v>2694.5</v>
+        <v>3158.2</v>
       </c>
       <c r="M35">
         <v>19</v>
@@ -4523,16 +4523,16 @@
         <v>57.6</v>
       </c>
       <c r="O35">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P35">
-        <v>12560</v>
+        <v>14428</v>
       </c>
       <c r="Q35">
-        <v>380.6</v>
+        <v>437.2</v>
       </c>
       <c r="R35">
-        <v>950.2</v>
+        <v>1113.6</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>7</v>
       </c>
       <c r="V35">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="W35">
-        <v>4730</v>
+        <v>5644</v>
       </c>
       <c r="X35">
         <v>33</v>
       </c>
       <c r="Y35">
-        <v>628</v>
+        <v>721.4</v>
       </c>
       <c r="Z35">
         <v>20</v>
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>4914</v>
+        <v>10121</v>
       </c>
       <c r="AD35">
-        <v>148.9</v>
+        <v>306.7</v>
       </c>
       <c r="AE35">
-        <v>328.9</v>
+        <v>524.4</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4580,28 +4580,28 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="AJ35">
-        <v>1322</v>
+        <v>2265</v>
       </c>
       <c r="AK35">
         <v>33</v>
       </c>
       <c r="AL35">
-        <v>702</v>
+        <v>595.4</v>
       </c>
       <c r="AM35">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AN35">
-        <v>21.2</v>
+        <v>51.5</v>
       </c>
       <c r="AO35">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4610,13 +4610,13 @@
         <v>31</v>
       </c>
       <c r="C36">
-        <v>9104</v>
+        <v>10365</v>
       </c>
       <c r="D36">
-        <v>364.2</v>
+        <v>414.6</v>
       </c>
       <c r="E36">
-        <v>766.7</v>
+        <v>859.6</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>164</v>
       </c>
       <c r="J36">
-        <v>2832</v>
+        <v>3045</v>
       </c>
       <c r="K36">
         <v>25</v>
       </c>
       <c r="L36">
-        <v>1138</v>
+        <v>1295.6</v>
       </c>
       <c r="M36">
         <v>8</v>
@@ -4649,13 +4649,13 @@
         <v>-1.9</v>
       </c>
       <c r="P36">
-        <v>1606</v>
+        <v>1955</v>
       </c>
       <c r="Q36">
-        <v>64.2</v>
+        <v>78.2</v>
       </c>
       <c r="R36">
-        <v>233.2</v>
+        <v>278.8</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4667,16 +4667,16 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="W36">
-        <v>1165</v>
+        <v>1392</v>
       </c>
       <c r="X36">
         <v>25</v>
       </c>
       <c r="Y36">
-        <v>178.4</v>
+        <v>217.2</v>
       </c>
       <c r="Z36">
         <v>9</v>
@@ -4688,13 +4688,13 @@
         <v>-1.8</v>
       </c>
       <c r="AC36">
-        <v>6184</v>
+        <v>3672</v>
       </c>
       <c r="AD36">
-        <v>247.4</v>
+        <v>146.9</v>
       </c>
       <c r="AE36">
-        <v>793.2</v>
+        <v>451.1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4709,22 +4709,22 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>3642</v>
+        <v>1687</v>
       </c>
       <c r="AK36">
         <v>25</v>
       </c>
       <c r="AL36">
-        <v>2061.3</v>
+        <v>612</v>
       </c>
       <c r="AM36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN36">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AO36">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4733,13 +4733,13 @@
         <v>32</v>
       </c>
       <c r="C37">
-        <v>24492</v>
+        <v>29578</v>
       </c>
       <c r="D37">
-        <v>720.4</v>
+        <v>869.9</v>
       </c>
       <c r="E37">
-        <v>1177.3</v>
+        <v>1419.7</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4748,19 +4748,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>142.5</v>
+        <v>208</v>
       </c>
       <c r="I37">
-        <v>982.5</v>
+        <v>1229.8</v>
       </c>
       <c r="J37">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="K37">
         <v>34</v>
       </c>
       <c r="L37">
-        <v>1020.5</v>
+        <v>1232.4</v>
       </c>
       <c r="M37">
         <v>24</v>
@@ -4772,13 +4772,13 @@
         <v>0.8</v>
       </c>
       <c r="P37">
-        <v>17301</v>
+        <v>20990</v>
       </c>
       <c r="Q37">
-        <v>508.9</v>
+        <v>617.4</v>
       </c>
       <c r="R37">
-        <v>1920.5</v>
+        <v>2384.3</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4787,19 +4787,19 @@
         <v>0.2</v>
       </c>
       <c r="U37">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="V37">
-        <v>276</v>
+        <v>322.2</v>
       </c>
       <c r="W37">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X37">
         <v>34</v>
       </c>
       <c r="Y37">
-        <v>692</v>
+        <v>839.6</v>
       </c>
       <c r="Z37">
         <v>25</v>
@@ -4808,16 +4808,16 @@
         <v>73.5</v>
       </c>
       <c r="AB37">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>10648</v>
+        <v>12376</v>
       </c>
       <c r="AD37">
-        <v>313.2</v>
+        <v>364</v>
       </c>
       <c r="AE37">
-        <v>497</v>
+        <v>518.2</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4826,28 +4826,28 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>125.5</v>
       </c>
       <c r="AI37">
-        <v>489</v>
+        <v>637</v>
       </c>
       <c r="AJ37">
-        <v>1721</v>
+        <v>2074</v>
       </c>
       <c r="AK37">
         <v>34</v>
       </c>
       <c r="AL37">
-        <v>665.5</v>
+        <v>562.5</v>
       </c>
       <c r="AM37">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AN37">
-        <v>47.1</v>
+        <v>64.7</v>
       </c>
       <c r="AO37">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4856,13 +4856,13 @@
         <v>33</v>
       </c>
       <c r="C38">
-        <v>50855</v>
+        <v>60973</v>
       </c>
       <c r="D38">
-        <v>635.7</v>
+        <v>762.2</v>
       </c>
       <c r="E38">
-        <v>1577.5</v>
+        <v>1824.9</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4874,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>605.8</v>
+        <v>738</v>
       </c>
       <c r="J38">
-        <v>10768</v>
+        <v>11943</v>
       </c>
       <c r="K38">
         <v>80</v>
       </c>
       <c r="L38">
-        <v>1338.3</v>
+        <v>1604.6</v>
       </c>
       <c r="M38">
         <v>38</v>
@@ -4892,16 +4892,16 @@
         <v>47.5</v>
       </c>
       <c r="O38">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="P38">
-        <v>39840</v>
+        <v>45426</v>
       </c>
       <c r="Q38">
-        <v>498</v>
+        <v>567.8</v>
       </c>
       <c r="R38">
-        <v>2480.3</v>
+        <v>2771.7</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4913,16 +4913,16 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>78.2</v>
+        <v>105.2</v>
       </c>
       <c r="W38">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X38">
         <v>80</v>
       </c>
       <c r="Y38">
-        <v>1048.4</v>
+        <v>1195.4</v>
       </c>
       <c r="Z38">
         <v>38</v>
@@ -4931,16 +4931,16 @@
         <v>47.5</v>
       </c>
       <c r="AB38">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>48916</v>
+        <v>22711</v>
       </c>
       <c r="AD38">
-        <v>611.4</v>
+        <v>283.9</v>
       </c>
       <c r="AE38">
-        <v>4120.8</v>
+        <v>508.3</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4952,25 +4952,25 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>377.2</v>
       </c>
       <c r="AJ38">
-        <v>36858</v>
+        <v>2014</v>
       </c>
       <c r="AK38">
         <v>80</v>
       </c>
       <c r="AL38">
-        <v>3261.1</v>
+        <v>613.8</v>
       </c>
       <c r="AM38">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AN38">
-        <v>18.8</v>
+        <v>46.2</v>
       </c>
       <c r="AO38">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4979,13 +4979,13 @@
         <v>34</v>
       </c>
       <c r="C39">
-        <v>12425</v>
+        <v>14397</v>
       </c>
       <c r="D39">
-        <v>165.7</v>
+        <v>192</v>
       </c>
       <c r="E39">
-        <v>462.5</v>
+        <v>552.8</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4997,16 +4997,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>99</v>
+        <v>118.5</v>
       </c>
       <c r="J39">
-        <v>3483</v>
+        <v>4227</v>
       </c>
       <c r="K39">
         <v>75</v>
       </c>
       <c r="L39">
-        <v>365.4</v>
+        <v>423.4</v>
       </c>
       <c r="M39">
         <v>34</v>
@@ -5018,13 +5018,13 @@
         <v>-1</v>
       </c>
       <c r="P39">
-        <v>2129</v>
+        <v>2487</v>
       </c>
       <c r="Q39">
-        <v>28.4</v>
+        <v>33.2</v>
       </c>
       <c r="R39">
-        <v>96.5</v>
+        <v>115.3</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5036,34 +5036,34 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W39">
-        <v>767</v>
+        <v>932</v>
       </c>
       <c r="X39">
         <v>75</v>
       </c>
       <c r="Y39">
-        <v>60.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="Z39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA39">
-        <v>46.7</v>
+        <v>45.3</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AC39">
-        <v>7493</v>
+        <v>17056</v>
       </c>
       <c r="AD39">
-        <v>99.90000000000001</v>
+        <v>227.4</v>
       </c>
       <c r="AE39">
-        <v>312.3</v>
+        <v>452</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5072,28 +5072,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="AJ39">
-        <v>2234</v>
+        <v>2680</v>
       </c>
       <c r="AK39">
         <v>75</v>
       </c>
       <c r="AL39">
-        <v>576.4</v>
+        <v>406.1</v>
       </c>
       <c r="AM39">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AN39">
-        <v>17.3</v>
+        <v>56</v>
       </c>
       <c r="AO39">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5102,13 +5102,13 @@
         <v>35</v>
       </c>
       <c r="C40">
-        <v>11226</v>
+        <v>13247</v>
       </c>
       <c r="D40">
-        <v>1020.5</v>
+        <v>1204.3</v>
       </c>
       <c r="E40">
-        <v>1220.2</v>
+        <v>1386.1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5117,19 +5117,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="I40">
-        <v>1994</v>
+        <v>2292.5</v>
       </c>
       <c r="J40">
-        <v>3159</v>
+        <v>3423</v>
       </c>
       <c r="K40">
         <v>11</v>
       </c>
       <c r="L40">
-        <v>1403.2</v>
+        <v>1655.9</v>
       </c>
       <c r="M40">
         <v>8</v>
@@ -5138,37 +5138,37 @@
         <v>72.7</v>
       </c>
       <c r="O40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>7823</v>
+        <v>8854</v>
       </c>
       <c r="Q40">
-        <v>711.2</v>
+        <v>804.9</v>
       </c>
       <c r="R40">
-        <v>1393.4</v>
+        <v>1582.6</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="V40">
-        <v>760</v>
+        <v>863.5</v>
       </c>
       <c r="W40">
-        <v>4541</v>
+        <v>5181</v>
       </c>
       <c r="X40">
         <v>11</v>
       </c>
       <c r="Y40">
-        <v>977.9</v>
+        <v>1106.8</v>
       </c>
       <c r="Z40">
         <v>8</v>
@@ -5180,43 +5180,43 @@
         <v>0.9</v>
       </c>
       <c r="AC40">
-        <v>4361</v>
+        <v>6387</v>
       </c>
       <c r="AD40">
-        <v>396.5</v>
+        <v>580.6</v>
       </c>
       <c r="AE40">
-        <v>662.2</v>
+        <v>513.1</v>
       </c>
       <c r="AF40">
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="AI40">
-        <v>678.5</v>
+        <v>1078</v>
       </c>
       <c r="AJ40">
-        <v>2030</v>
+        <v>1319</v>
       </c>
       <c r="AK40">
         <v>11</v>
       </c>
       <c r="AL40">
-        <v>1090.2</v>
+        <v>798.4</v>
       </c>
       <c r="AM40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN40">
-        <v>36.4</v>
+        <v>72.7</v>
       </c>
       <c r="AO40">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5225,13 +5225,13 @@
         <v>36</v>
       </c>
       <c r="C41">
-        <v>18371</v>
+        <v>21982</v>
       </c>
       <c r="D41">
-        <v>306.2</v>
+        <v>366.4</v>
       </c>
       <c r="E41">
-        <v>641.1</v>
+        <v>791.4</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5240,37 +5240,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
-        <v>421</v>
+        <v>463.8</v>
       </c>
       <c r="J41">
-        <v>3970</v>
+        <v>4961</v>
       </c>
       <c r="K41">
         <v>60</v>
       </c>
       <c r="L41">
-        <v>592.6</v>
+        <v>732.7</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="O41">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="P41">
-        <v>10786</v>
+        <v>12081</v>
       </c>
       <c r="Q41">
-        <v>179.8</v>
+        <v>201.4</v>
       </c>
       <c r="R41">
-        <v>801.1</v>
+        <v>855.1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5279,37 +5279,37 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>54.5</v>
+        <v>69.2</v>
       </c>
       <c r="W41">
-        <v>6137</v>
+        <v>6511</v>
       </c>
       <c r="X41">
         <v>60</v>
       </c>
       <c r="Y41">
-        <v>359.5</v>
+        <v>416.6</v>
       </c>
       <c r="Z41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA41">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="AB41">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AC41">
-        <v>33174</v>
+        <v>18280</v>
       </c>
       <c r="AD41">
-        <v>552.9</v>
+        <v>304.7</v>
       </c>
       <c r="AE41">
-        <v>2630.5</v>
+        <v>504.5</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5318,28 +5318,28 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI41">
-        <v>317</v>
+        <v>420.2</v>
       </c>
       <c r="AJ41">
-        <v>20246</v>
+        <v>2592</v>
       </c>
       <c r="AK41">
         <v>60</v>
       </c>
       <c r="AL41">
-        <v>1507.9</v>
+        <v>589.7</v>
       </c>
       <c r="AM41">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AN41">
-        <v>36.7</v>
+        <v>51.7</v>
       </c>
       <c r="AO41">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -5348,13 +5348,13 @@
         <v>37</v>
       </c>
       <c r="C42">
-        <v>12743</v>
+        <v>14701</v>
       </c>
       <c r="D42">
-        <v>455.1</v>
+        <v>525</v>
       </c>
       <c r="E42">
-        <v>821.5</v>
+        <v>950.3</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5363,19 +5363,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>42.5</v>
+        <v>58.5</v>
       </c>
       <c r="I42">
-        <v>418.2</v>
+        <v>455.8</v>
       </c>
       <c r="J42">
-        <v>3039</v>
+        <v>3413</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>796.4</v>
+        <v>918.8</v>
       </c>
       <c r="M42">
         <v>16</v>
@@ -5387,13 +5387,13 @@
         <v>-0.2</v>
       </c>
       <c r="P42">
-        <v>4564</v>
+        <v>5483</v>
       </c>
       <c r="Q42">
-        <v>163</v>
+        <v>195.8</v>
       </c>
       <c r="R42">
-        <v>416.1</v>
+        <v>498.8</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -5402,19 +5402,19 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="V42">
-        <v>87</v>
+        <v>115.5</v>
       </c>
       <c r="W42">
-        <v>1644</v>
+        <v>1951</v>
       </c>
       <c r="X42">
         <v>28</v>
       </c>
       <c r="Y42">
-        <v>304.3</v>
+        <v>365.5</v>
       </c>
       <c r="Z42">
         <v>15</v>
@@ -5426,13 +5426,13 @@
         <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>6145</v>
+        <v>9293</v>
       </c>
       <c r="AD42">
-        <v>219.5</v>
+        <v>331.9</v>
       </c>
       <c r="AE42">
-        <v>540.7</v>
+        <v>583.1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5441,28 +5441,28 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI42">
-        <v>14.2</v>
+        <v>277.5</v>
       </c>
       <c r="AJ42">
-        <v>2410</v>
+        <v>2251</v>
       </c>
       <c r="AK42">
         <v>28</v>
       </c>
       <c r="AL42">
-        <v>877.9</v>
+        <v>663.8</v>
       </c>
       <c r="AM42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AN42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AO42">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5471,13 +5471,13 @@
         <v>38</v>
       </c>
       <c r="C43">
-        <v>109383</v>
+        <v>124072</v>
       </c>
       <c r="D43">
-        <v>714.9</v>
+        <v>810.9</v>
       </c>
       <c r="E43">
-        <v>3907.2</v>
+        <v>4308.8</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5486,37 +5486,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="J43">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K43">
         <v>153</v>
       </c>
       <c r="L43">
-        <v>1420.6</v>
+        <v>1632.5</v>
       </c>
       <c r="M43">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N43">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="O43">
         <v>-0.7</v>
       </c>
       <c r="P43">
-        <v>43305</v>
+        <v>50744</v>
       </c>
       <c r="Q43">
-        <v>283</v>
+        <v>331.7</v>
       </c>
       <c r="R43">
-        <v>1714.4</v>
+        <v>2024.6</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5531,31 +5531,31 @@
         <v>66</v>
       </c>
       <c r="W43">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X43">
         <v>153</v>
       </c>
       <c r="Y43">
-        <v>534.6</v>
+        <v>634.3</v>
       </c>
       <c r="Z43">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA43">
-        <v>52.9</v>
+        <v>52.3</v>
       </c>
       <c r="AB43">
         <v>-0.6</v>
       </c>
       <c r="AC43">
-        <v>38013</v>
+        <v>65204</v>
       </c>
       <c r="AD43">
-        <v>248.5</v>
+        <v>426.2</v>
       </c>
       <c r="AE43">
-        <v>438.6</v>
+        <v>673</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5564,28 +5564,28 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AI43">
-        <v>375</v>
+        <v>593</v>
       </c>
       <c r="AJ43">
-        <v>2151</v>
+        <v>4927</v>
       </c>
       <c r="AK43">
         <v>153</v>
       </c>
       <c r="AL43">
-        <v>623.2</v>
+        <v>633</v>
       </c>
       <c r="AM43">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AN43">
-        <v>39.9</v>
+        <v>67.3</v>
       </c>
       <c r="AO43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5594,13 +5594,13 @@
         <v>39</v>
       </c>
       <c r="C44">
-        <v>5760</v>
+        <v>6282</v>
       </c>
       <c r="D44">
-        <v>261.8</v>
+        <v>285.5</v>
       </c>
       <c r="E44">
-        <v>456.1</v>
+        <v>481.5</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5612,16 +5612,16 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>424.5</v>
+        <v>486.5</v>
       </c>
       <c r="J44">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="K44">
         <v>22</v>
       </c>
       <c r="L44">
-        <v>523.6</v>
+        <v>571.1</v>
       </c>
       <c r="M44">
         <v>11</v>
@@ -5633,13 +5633,13 @@
         <v>-0.7</v>
       </c>
       <c r="P44">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="Q44">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="R44">
-        <v>43.2</v>
+        <v>47.4</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5651,34 +5651,34 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W44">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="X44">
         <v>22</v>
       </c>
       <c r="Y44">
-        <v>59.9</v>
+        <v>58</v>
       </c>
       <c r="Z44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA44">
-        <v>40.9</v>
+        <v>45.5</v>
       </c>
       <c r="AB44">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="AC44">
-        <v>3371</v>
+        <v>4793</v>
       </c>
       <c r="AD44">
-        <v>153.2</v>
+        <v>217.9</v>
       </c>
       <c r="AE44">
-        <v>517.2</v>
+        <v>388</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5687,28 +5687,28 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AJ44">
-        <v>2344</v>
+        <v>1213</v>
       </c>
       <c r="AK44">
         <v>22</v>
       </c>
       <c r="AL44">
-        <v>1123.7</v>
+        <v>435.7</v>
       </c>
       <c r="AM44">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AN44">
-        <v>13.6</v>
+        <v>50</v>
       </c>
       <c r="AO44">
-        <v>-1.5</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5717,13 +5717,13 @@
         <v>40</v>
       </c>
       <c r="C45">
-        <v>83644</v>
+        <v>99077</v>
       </c>
       <c r="D45">
-        <v>454.6</v>
+        <v>538.5</v>
       </c>
       <c r="E45">
-        <v>1053.1</v>
+        <v>1261.5</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5735,16 +5735,16 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>513.2</v>
+        <v>580.5</v>
       </c>
       <c r="J45">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K45">
         <v>184</v>
       </c>
       <c r="L45">
-        <v>939.8</v>
+        <v>1113.2</v>
       </c>
       <c r="M45">
         <v>89</v>
@@ -5756,13 +5756,13 @@
         <v>-0.8</v>
       </c>
       <c r="P45">
-        <v>33278</v>
+        <v>39495</v>
       </c>
       <c r="Q45">
-        <v>180.9</v>
+        <v>214.6</v>
       </c>
       <c r="R45">
-        <v>553.3</v>
+        <v>657.7</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5774,16 +5774,16 @@
         <v>1.5</v>
       </c>
       <c r="V45">
-        <v>78</v>
+        <v>94.2</v>
       </c>
       <c r="W45">
-        <v>4057</v>
+        <v>4641</v>
       </c>
       <c r="X45">
         <v>184</v>
       </c>
       <c r="Y45">
-        <v>357.8</v>
+        <v>424.7</v>
       </c>
       <c r="Z45">
         <v>93</v>
@@ -5795,13 +5795,13 @@
         <v>-0.7</v>
       </c>
       <c r="AC45">
-        <v>37918</v>
+        <v>59247</v>
       </c>
       <c r="AD45">
-        <v>206.1</v>
+        <v>322</v>
       </c>
       <c r="AE45">
-        <v>456.9</v>
+        <v>550.2</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5810,28 +5810,28 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI45">
-        <v>139.8</v>
+        <v>460</v>
       </c>
       <c r="AJ45">
-        <v>2696</v>
+        <v>3094</v>
       </c>
       <c r="AK45">
         <v>184</v>
       </c>
       <c r="AL45">
-        <v>743.5</v>
+        <v>598.5</v>
       </c>
       <c r="AM45">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AN45">
-        <v>27.7</v>
+        <v>53.8</v>
       </c>
       <c r="AO45">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
